--- a/output/damage/BRN_osm_tc_CMCC-CM2-VHR4_damage_1.xlsx
+++ b/output/damage/BRN_osm_tc_CMCC-CM2-VHR4_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>49389.31281858461</v>
+        <v>559469.3587071446</v>
       </c>
       <c r="F2" t="n">
-        <v>37041.98461393846</v>
+        <v>419602.0190303585</v>
       </c>
       <c r="G2" t="n">
-        <v>61736.64102323077</v>
+        <v>699336.6983839308</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30511.61991903672</v>
+        <v>345627.7371568583</v>
       </c>
       <c r="F3" t="n">
-        <v>22883.71493927754</v>
+        <v>259220.8028676437</v>
       </c>
       <c r="G3" t="n">
-        <v>38139.5248987959</v>
+        <v>432034.6714460729</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16463.10427286154</v>
+        <v>186489.7862357149</v>
       </c>
       <c r="F4" t="n">
-        <v>12347.32820464615</v>
+        <v>139867.3396767862</v>
       </c>
       <c r="G4" t="n">
-        <v>20578.88034107692</v>
+        <v>233112.2327946436</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10371.75569190277</v>
+        <v>117488.5653285004</v>
       </c>
       <c r="F5" t="n">
-        <v>7778.816768927077</v>
+        <v>88116.42399637529</v>
       </c>
       <c r="G5" t="n">
-        <v>12964.69461487846</v>
+        <v>146860.7066606255</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8725.445264616616</v>
+        <v>98839.58670492889</v>
       </c>
       <c r="F6" t="n">
-        <v>6544.083948462461</v>
+        <v>74129.69002869668</v>
       </c>
       <c r="G6" t="n">
-        <v>10906.80658077077</v>
+        <v>123549.4833811611</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5871.840523987282</v>
+        <v>66514.69042407165</v>
       </c>
       <c r="F7" t="n">
-        <v>4403.880392990462</v>
+        <v>49886.01781805373</v>
       </c>
       <c r="G7" t="n">
-        <v>7339.800654984102</v>
+        <v>83143.36303008955</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>49396.7337886895</v>
+        <v>526986.8544474056</v>
       </c>
       <c r="F8" t="n">
-        <v>37047.55034151713</v>
+        <v>395240.1408355542</v>
       </c>
       <c r="G8" t="n">
-        <v>61745.91723586187</v>
+        <v>658733.568059257</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30516.20442945707</v>
+        <v>325560.7678586195</v>
       </c>
       <c r="F9" t="n">
-        <v>22887.1533220928</v>
+        <v>244170.5758939646</v>
       </c>
       <c r="G9" t="n">
-        <v>38145.25553682134</v>
+        <v>406950.9598232744</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16465.57792956317</v>
+        <v>175662.2848158019</v>
       </c>
       <c r="F10" t="n">
-        <v>12349.18344717237</v>
+        <v>131746.7136118514</v>
       </c>
       <c r="G10" t="n">
-        <v>20581.97241195396</v>
+        <v>219577.8560197524</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10373.3140956248</v>
+        <v>110667.2394339552</v>
       </c>
       <c r="F11" t="n">
-        <v>7779.985571718596</v>
+        <v>83000.42957546641</v>
       </c>
       <c r="G11" t="n">
-        <v>12966.64261953099</v>
+        <v>138334.049292444</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8726.756302668478</v>
+        <v>93101.010952375</v>
       </c>
       <c r="F12" t="n">
-        <v>6545.067227001358</v>
+        <v>69825.75821428125</v>
       </c>
       <c r="G12" t="n">
-        <v>10908.4453783356</v>
+        <v>116376.2636904687</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5872.72279487753</v>
+        <v>62652.88158430267</v>
       </c>
       <c r="F13" t="n">
-        <v>4404.542096158148</v>
+        <v>46989.661188227</v>
       </c>
       <c r="G13" t="n">
-        <v>7340.903493596911</v>
+        <v>78316.10198037833</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>49395.07981485825</v>
+        <v>417233.5968747629</v>
       </c>
       <c r="F14" t="n">
-        <v>37046.30986114369</v>
+        <v>312925.1976560722</v>
       </c>
       <c r="G14" t="n">
-        <v>61743.84976857282</v>
+        <v>521541.9960934537</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30515.1826411791</v>
+        <v>257757.6442915202</v>
       </c>
       <c r="F15" t="n">
-        <v>22886.38698088433</v>
+        <v>193318.2332186402</v>
       </c>
       <c r="G15" t="n">
-        <v>38143.97830147388</v>
+        <v>322197.0553644003</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16465.02660495275</v>
+        <v>139077.865624921</v>
       </c>
       <c r="F16" t="n">
-        <v>12348.76995371456</v>
+        <v>104308.3992186907</v>
       </c>
       <c r="G16" t="n">
-        <v>20581.28325619094</v>
+        <v>173847.3320311513</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10372.96676112023</v>
+        <v>87619.05534370024</v>
       </c>
       <c r="F17" t="n">
-        <v>7779.725070840176</v>
+        <v>65714.29150777517</v>
       </c>
       <c r="G17" t="n">
-        <v>12966.20845140029</v>
+        <v>109523.8191796253</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8726.464100624959</v>
+        <v>73711.26878120811</v>
       </c>
       <c r="F18" t="n">
-        <v>6544.848075468719</v>
+        <v>55283.4515859061</v>
       </c>
       <c r="G18" t="n">
-        <v>10908.0801257812</v>
+        <v>92139.08597651015</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5872.526155766482</v>
+        <v>49604.43873955515</v>
       </c>
       <c r="F19" t="n">
-        <v>4404.394616824862</v>
+        <v>37203.32905466636</v>
       </c>
       <c r="G19" t="n">
-        <v>7340.657694708102</v>
+        <v>62005.54842444394</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>49396.52025061573</v>
+        <v>316414.2569301167</v>
       </c>
       <c r="F20" t="n">
-        <v>37047.3901879618</v>
+        <v>237310.6926975875</v>
       </c>
       <c r="G20" t="n">
-        <v>61745.65031326967</v>
+        <v>395517.8211626459</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30516.07251038039</v>
+        <v>195473.6965034943</v>
       </c>
       <c r="F21" t="n">
-        <v>22887.05438278529</v>
+        <v>146605.2723776207</v>
       </c>
       <c r="G21" t="n">
-        <v>38145.09063797548</v>
+        <v>244342.1206293679</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16465.50675020524</v>
+        <v>105471.4189767056</v>
       </c>
       <c r="F22" t="n">
-        <v>12349.13006265393</v>
+        <v>79103.56423252917</v>
       </c>
       <c r="G22" t="n">
-        <v>20581.88343775655</v>
+        <v>131839.273720882</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10373.2692526293</v>
+        <v>66446.99395532451</v>
       </c>
       <c r="F23" t="n">
-        <v>7779.951939471977</v>
+        <v>49835.24546649338</v>
       </c>
       <c r="G23" t="n">
-        <v>12966.58656578663</v>
+        <v>83058.74244415562</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8726.718577608779</v>
+        <v>55899.85205765394</v>
       </c>
       <c r="F24" t="n">
-        <v>6545.038933206584</v>
+        <v>41924.88904324046</v>
       </c>
       <c r="G24" t="n">
-        <v>10908.39822201097</v>
+        <v>69874.81507206743</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5872.697407573202</v>
+        <v>37618.13943502498</v>
       </c>
       <c r="F25" t="n">
-        <v>4404.523055679903</v>
+        <v>28213.60457626874</v>
       </c>
       <c r="G25" t="n">
-        <v>7340.871759466504</v>
+        <v>47022.67429378123</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49391.4832885759</v>
+        <v>281834.7829334151</v>
       </c>
       <c r="F26" t="n">
-        <v>37043.61246643192</v>
+        <v>211376.0872000614</v>
       </c>
       <c r="G26" t="n">
-        <v>61739.35411071987</v>
+        <v>352293.4786667689</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30512.96078716466</v>
+        <v>174111.2659010876</v>
       </c>
       <c r="F27" t="n">
-        <v>22884.7205903735</v>
+        <v>130583.4494258157</v>
       </c>
       <c r="G27" t="n">
-        <v>38141.20098395584</v>
+        <v>217639.0823763595</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16463.82776285863</v>
+        <v>93944.92764447173</v>
       </c>
       <c r="F28" t="n">
-        <v>12347.87082214397</v>
+        <v>70458.69573335377</v>
       </c>
       <c r="G28" t="n">
-        <v>20579.78470357329</v>
+        <v>117431.1595555896</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10372.21149060094</v>
+        <v>59185.30441601718</v>
       </c>
       <c r="F29" t="n">
-        <v>7779.158617950704</v>
+        <v>44388.97831201288</v>
       </c>
       <c r="G29" t="n">
-        <v>12965.26436325117</v>
+        <v>73981.63052002147</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8725.828714315076</v>
+        <v>49790.81165157</v>
       </c>
       <c r="F30" t="n">
-        <v>6544.371535736307</v>
+        <v>37343.1087386775</v>
       </c>
       <c r="G30" t="n">
-        <v>10907.28589289384</v>
+        <v>62238.5145644625</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5872.098568752912</v>
+        <v>33507.02419319491</v>
       </c>
       <c r="F31" t="n">
-        <v>4404.073926564684</v>
+        <v>25130.26814489618</v>
       </c>
       <c r="G31" t="n">
-        <v>7340.12321094114</v>
+        <v>41883.78024149363</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46655.21834783145</v>
+        <v>413843.1328464477</v>
       </c>
       <c r="F32" t="n">
-        <v>34991.41376087359</v>
+        <v>310382.3496348358</v>
       </c>
       <c r="G32" t="n">
-        <v>58319.02293478932</v>
+        <v>517303.9160580596</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28822.55711266032</v>
+        <v>255663.0909584721</v>
       </c>
       <c r="F33" t="n">
-        <v>21616.91783449524</v>
+        <v>191747.3182188541</v>
       </c>
       <c r="G33" t="n">
-        <v>36028.1963908254</v>
+        <v>319578.8636980902</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15551.73944927715</v>
+        <v>137947.7109488159</v>
       </c>
       <c r="F34" t="n">
-        <v>11663.80458695786</v>
+        <v>103460.7832116119</v>
       </c>
       <c r="G34" t="n">
-        <v>19439.67431159644</v>
+        <v>172434.6386860199</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9797.595853044606</v>
+        <v>86907.05789775403</v>
       </c>
       <c r="F35" t="n">
-        <v>7348.196889783454</v>
+        <v>65180.29342331552</v>
       </c>
       <c r="G35" t="n">
-        <v>12246.99481630576</v>
+        <v>108633.8223721925</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8242.42190811689</v>
+        <v>73112.28680287243</v>
       </c>
       <c r="F36" t="n">
-        <v>6181.816431087668</v>
+        <v>54834.21510215432</v>
       </c>
       <c r="G36" t="n">
-        <v>10303.02738514611</v>
+        <v>91390.35850359053</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5546.787070242184</v>
+        <v>49201.35023841101</v>
       </c>
       <c r="F37" t="n">
-        <v>4160.090302681639</v>
+        <v>36901.01267880826</v>
       </c>
       <c r="G37" t="n">
-        <v>6933.483837802731</v>
+        <v>61501.68779801375</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43488.88748907444</v>
+        <v>126458.2593893184</v>
       </c>
       <c r="F38" t="n">
-        <v>32616.66561680584</v>
+        <v>94843.69454198881</v>
       </c>
       <c r="G38" t="n">
-        <v>54361.10936134306</v>
+        <v>158072.824236648</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26866.46827102821</v>
+        <v>78123.10246717892</v>
       </c>
       <c r="F39" t="n">
-        <v>20149.85120327116</v>
+        <v>58592.32685038419</v>
       </c>
       <c r="G39" t="n">
-        <v>33583.08533878527</v>
+        <v>97653.87808397366</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14496.29582969148</v>
+        <v>42152.75312977281</v>
       </c>
       <c r="F40" t="n">
-        <v>10872.22187226861</v>
+        <v>31614.5648473296</v>
       </c>
       <c r="G40" t="n">
-        <v>18120.36978711435</v>
+        <v>52690.94141221601</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>9132.666372705635</v>
+        <v>26556.23447175687</v>
       </c>
       <c r="F41" t="n">
-        <v>6849.499779529226</v>
+        <v>19917.17585381765</v>
       </c>
       <c r="G41" t="n">
-        <v>11415.83296588204</v>
+        <v>33195.29308969608</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7683.036789736487</v>
+        <v>22340.95915877958</v>
       </c>
       <c r="F42" t="n">
-        <v>5762.277592302365</v>
+        <v>16755.71936908469</v>
       </c>
       <c r="G42" t="n">
-        <v>9603.795987170606</v>
+        <v>27926.19894847448</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5170.345512589963</v>
+        <v>15034.48194961897</v>
       </c>
       <c r="F43" t="n">
-        <v>3877.759134442472</v>
+        <v>11275.86146221422</v>
       </c>
       <c r="G43" t="n">
-        <v>6462.931890737453</v>
+        <v>18793.10243702371</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>49389.31281858461</v>
+        <v>306279.5987245396</v>
       </c>
       <c r="F44" t="n">
-        <v>37041.98461393846</v>
+        <v>229709.6990434047</v>
       </c>
       <c r="G44" t="n">
-        <v>61736.64102323077</v>
+        <v>382849.4984056745</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30511.61991903672</v>
+        <v>189212.7298787156</v>
       </c>
       <c r="F45" t="n">
-        <v>22883.71493927754</v>
+        <v>141909.5474090367</v>
       </c>
       <c r="G45" t="n">
-        <v>38139.5248987959</v>
+        <v>236515.9123483945</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16463.10427286154</v>
+        <v>102093.1995748465</v>
       </c>
       <c r="F46" t="n">
-        <v>12347.32820464615</v>
+        <v>76569.89968113489</v>
       </c>
       <c r="G46" t="n">
-        <v>20578.88034107692</v>
+        <v>127616.4994685582</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10371.75569190277</v>
+        <v>64318.71573215332</v>
       </c>
       <c r="F47" t="n">
-        <v>7778.816768927077</v>
+        <v>48239.03679911499</v>
       </c>
       <c r="G47" t="n">
-        <v>12964.69461487846</v>
+        <v>80398.39466519165</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8725.445264616616</v>
+        <v>54109.39577466866</v>
       </c>
       <c r="F48" t="n">
-        <v>6544.083948462461</v>
+        <v>40582.0468310015</v>
       </c>
       <c r="G48" t="n">
-        <v>10906.80658077077</v>
+        <v>67636.74471833583</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5871.840523987282</v>
+        <v>36413.24118169526</v>
       </c>
       <c r="F49" t="n">
-        <v>4403.880392990462</v>
+        <v>27309.93088627145</v>
       </c>
       <c r="G49" t="n">
-        <v>7339.800654984102</v>
+        <v>45516.55147711907</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>49396.7337886895</v>
+        <v>236364.9008338421</v>
       </c>
       <c r="F50" t="n">
-        <v>37047.55034151713</v>
+        <v>177273.6756253816</v>
       </c>
       <c r="G50" t="n">
-        <v>61745.91723586187</v>
+        <v>295456.1260423026</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30516.20442945707</v>
+        <v>146020.9831817958</v>
       </c>
       <c r="F51" t="n">
-        <v>22887.1533220928</v>
+        <v>109515.7373863468</v>
       </c>
       <c r="G51" t="n">
-        <v>38145.25553682134</v>
+        <v>182526.2289772448</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16465.57792956317</v>
+        <v>78788.30027794738</v>
       </c>
       <c r="F52" t="n">
-        <v>12349.18344717237</v>
+        <v>59091.22520846053</v>
       </c>
       <c r="G52" t="n">
-        <v>20581.97241195396</v>
+        <v>98485.37534743422</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10373.3140956248</v>
+        <v>49636.62917510685</v>
       </c>
       <c r="F53" t="n">
-        <v>7779.985571718596</v>
+        <v>37227.47188133014</v>
       </c>
       <c r="G53" t="n">
-        <v>12966.64261953099</v>
+        <v>62045.78646888355</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8726.756302668478</v>
+        <v>41757.79914731211</v>
       </c>
       <c r="F54" t="n">
-        <v>6545.067227001358</v>
+        <v>31318.34936048408</v>
       </c>
       <c r="G54" t="n">
-        <v>10908.4453783356</v>
+        <v>52197.24893414013</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5872.72279487753</v>
+        <v>28101.1604324679</v>
       </c>
       <c r="F55" t="n">
-        <v>4404.542096158148</v>
+        <v>21075.87032435092</v>
       </c>
       <c r="G55" t="n">
-        <v>7340.903493596911</v>
+        <v>35126.45054058487</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49395.07981485825</v>
+        <v>160385.2747404714</v>
       </c>
       <c r="F56" t="n">
-        <v>37046.30986114369</v>
+        <v>120288.9560553536</v>
       </c>
       <c r="G56" t="n">
-        <v>61743.84976857282</v>
+        <v>200481.5934255893</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30515.1826411791</v>
+        <v>99082.4586174468</v>
       </c>
       <c r="F57" t="n">
-        <v>22886.38698088433</v>
+        <v>74311.84396308511</v>
       </c>
       <c r="G57" t="n">
-        <v>38143.97830147388</v>
+        <v>123853.0732718085</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16465.02660495275</v>
+        <v>53461.75824682383</v>
       </c>
       <c r="F58" t="n">
-        <v>12348.76995371456</v>
+        <v>40096.31868511786</v>
       </c>
       <c r="G58" t="n">
-        <v>20581.28325619094</v>
+        <v>66827.19780852977</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10372.96676112023</v>
+        <v>33680.90769549901</v>
       </c>
       <c r="F59" t="n">
-        <v>7779.725070840176</v>
+        <v>25260.68077162426</v>
       </c>
       <c r="G59" t="n">
-        <v>12966.20845140029</v>
+        <v>42101.13461937376</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8726.464100624959</v>
+        <v>28334.73187081662</v>
       </c>
       <c r="F60" t="n">
-        <v>6544.848075468719</v>
+        <v>21251.04890311247</v>
       </c>
       <c r="G60" t="n">
-        <v>10908.0801257812</v>
+        <v>35418.41483852078</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5872.526155766482</v>
+        <v>19068.02710803383</v>
       </c>
       <c r="F61" t="n">
-        <v>4404.394616824862</v>
+        <v>14301.02033102537</v>
       </c>
       <c r="G61" t="n">
-        <v>7340.657694708102</v>
+        <v>23835.03388504228</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49396.52025061573</v>
+        <v>109533.8350337143</v>
       </c>
       <c r="F62" t="n">
-        <v>37047.3901879618</v>
+        <v>82150.37627528576</v>
       </c>
       <c r="G62" t="n">
-        <v>61745.65031326967</v>
+        <v>136917.2937921429</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30516.07251038039</v>
+        <v>67667.56919860575</v>
       </c>
       <c r="F63" t="n">
-        <v>22887.05438278529</v>
+        <v>50750.67689895431</v>
       </c>
       <c r="G63" t="n">
-        <v>38145.09063797548</v>
+        <v>84584.46149825718</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16465.50675020524</v>
+        <v>36511.27834457145</v>
       </c>
       <c r="F64" t="n">
-        <v>12349.13006265393</v>
+        <v>27383.45875842858</v>
       </c>
       <c r="G64" t="n">
-        <v>20581.88343775655</v>
+        <v>45639.09793071431</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10373.2692526293</v>
+        <v>23002.10535708001</v>
       </c>
       <c r="F65" t="n">
-        <v>7779.951939471977</v>
+        <v>17251.57901781001</v>
       </c>
       <c r="G65" t="n">
-        <v>12966.58656578663</v>
+        <v>28752.63169635001</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8726.718577608779</v>
+        <v>19350.97752262287</v>
       </c>
       <c r="F66" t="n">
-        <v>6545.038933206584</v>
+        <v>14513.23314196715</v>
       </c>
       <c r="G66" t="n">
-        <v>10908.39822201097</v>
+        <v>24188.72190327859</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5872.697407573202</v>
+        <v>13022.35594289715</v>
       </c>
       <c r="F67" t="n">
-        <v>4404.523055679903</v>
+        <v>9766.766957172862</v>
       </c>
       <c r="G67" t="n">
-        <v>7340.871759466504</v>
+        <v>16277.94492862144</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>49391.4832885759</v>
+        <v>88692.84257593629</v>
       </c>
       <c r="F68" t="n">
-        <v>37043.61246643192</v>
+        <v>66519.63193195222</v>
       </c>
       <c r="G68" t="n">
-        <v>61739.35411071987</v>
+        <v>110866.0532199204</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30512.96078716466</v>
+        <v>54792.4671913562</v>
       </c>
       <c r="F69" t="n">
-        <v>22884.7205903735</v>
+        <v>41094.35039351715</v>
       </c>
       <c r="G69" t="n">
-        <v>38141.20098395584</v>
+        <v>68490.58398919526</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16463.82776285863</v>
+        <v>29564.28085864543</v>
       </c>
       <c r="F70" t="n">
-        <v>12347.87082214397</v>
+        <v>22173.21064398407</v>
       </c>
       <c r="G70" t="n">
-        <v>20579.78470357329</v>
+        <v>36955.35107330679</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10372.21149060094</v>
+        <v>18625.49694094662</v>
       </c>
       <c r="F71" t="n">
-        <v>7779.158617950704</v>
+        <v>13969.12270570997</v>
       </c>
       <c r="G71" t="n">
-        <v>12965.26436325117</v>
+        <v>23281.87117618328</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>8725.828714315076</v>
+        <v>15669.06885508208</v>
       </c>
       <c r="F72" t="n">
-        <v>6544.371535736307</v>
+        <v>11751.80164131156</v>
       </c>
       <c r="G72" t="n">
-        <v>10907.28589289384</v>
+        <v>19586.3360688526</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5872.098568752912</v>
+        <v>10544.5935062502</v>
       </c>
       <c r="F73" t="n">
-        <v>4404.073926564684</v>
+        <v>7908.445129687653</v>
       </c>
       <c r="G73" t="n">
-        <v>7340.12321094114</v>
+        <v>13180.74188281275</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>46655.21834783145</v>
+        <v>258497.8767515519</v>
       </c>
       <c r="F74" t="n">
-        <v>34991.41376087359</v>
+        <v>193873.407563664</v>
       </c>
       <c r="G74" t="n">
-        <v>58319.02293478932</v>
+        <v>323122.34593944</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28822.55711266032</v>
+        <v>159694.2438598476</v>
       </c>
       <c r="F75" t="n">
-        <v>21616.91783449524</v>
+        <v>119770.6828948857</v>
       </c>
       <c r="G75" t="n">
-        <v>36028.1963908254</v>
+        <v>199617.8048248096</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15551.73944927715</v>
+        <v>86165.95891718399</v>
       </c>
       <c r="F76" t="n">
-        <v>11663.80458695786</v>
+        <v>64624.46918788798</v>
       </c>
       <c r="G76" t="n">
-        <v>19439.67431159644</v>
+        <v>107707.44864648</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9797.595853044606</v>
+        <v>54284.55411782592</v>
       </c>
       <c r="F77" t="n">
-        <v>7348.196889783454</v>
+        <v>40713.41558836943</v>
       </c>
       <c r="G77" t="n">
-        <v>12246.99481630576</v>
+        <v>67855.69264728238</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8242.42190811689</v>
+        <v>45667.95822610751</v>
       </c>
       <c r="F78" t="n">
-        <v>6181.816431087668</v>
+        <v>34250.96866958064</v>
       </c>
       <c r="G78" t="n">
-        <v>10303.02738514611</v>
+        <v>57084.94778263439</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5546.787070242184</v>
+        <v>30732.52534712895</v>
       </c>
       <c r="F79" t="n">
-        <v>4160.090302681639</v>
+        <v>23049.39401034672</v>
       </c>
       <c r="G79" t="n">
-        <v>6933.483837802731</v>
+        <v>38415.65668391118</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43488.88748907444</v>
+        <v>111553.8339731463</v>
       </c>
       <c r="F80" t="n">
-        <v>32616.66561680584</v>
+        <v>83665.37547985972</v>
       </c>
       <c r="G80" t="n">
-        <v>54361.10936134306</v>
+        <v>139442.2924664329</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26866.46827102821</v>
+        <v>68915.47965452149</v>
       </c>
       <c r="F81" t="n">
-        <v>20149.85120327116</v>
+        <v>51686.60974089112</v>
       </c>
       <c r="G81" t="n">
-        <v>33583.08533878527</v>
+        <v>86144.34956815187</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14496.29582969148</v>
+        <v>37184.6113243821</v>
       </c>
       <c r="F82" t="n">
-        <v>10872.22187226861</v>
+        <v>27888.45849328657</v>
       </c>
       <c r="G82" t="n">
-        <v>18120.36978711435</v>
+        <v>46480.76415547762</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9132.666372705635</v>
+        <v>23426.30513436073</v>
       </c>
       <c r="F83" t="n">
-        <v>6849.499779529226</v>
+        <v>17569.72885077054</v>
       </c>
       <c r="G83" t="n">
-        <v>11415.83296588204</v>
+        <v>29282.8814179509</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>7683.036789736487</v>
+        <v>19707.84400192251</v>
       </c>
       <c r="F84" t="n">
-        <v>5762.277592302365</v>
+        <v>14780.88300144189</v>
       </c>
       <c r="G84" t="n">
-        <v>9603.795987170606</v>
+        <v>24634.80500240314</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.51137236295</v>
       </c>
       <c r="F85" t="n">
-        <v>3877.759134442472</v>
+        <v>9946.883529272212</v>
       </c>
       <c r="G85" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.13921545368</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49389.31281858461</v>
+        <v>306279.5987245396</v>
       </c>
       <c r="F86" t="n">
-        <v>37041.98461393846</v>
+        <v>229709.6990434047</v>
       </c>
       <c r="G86" t="n">
-        <v>61736.64102323077</v>
+        <v>382849.4984056745</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30511.61991903672</v>
+        <v>189212.7298787156</v>
       </c>
       <c r="F87" t="n">
-        <v>22883.71493927754</v>
+        <v>141909.5474090367</v>
       </c>
       <c r="G87" t="n">
-        <v>38139.5248987959</v>
+        <v>236515.9123483945</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16463.10427286154</v>
+        <v>102093.1995748465</v>
       </c>
       <c r="F88" t="n">
-        <v>12347.32820464615</v>
+        <v>76569.89968113489</v>
       </c>
       <c r="G88" t="n">
-        <v>20578.88034107692</v>
+        <v>127616.4994685582</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10371.75569190277</v>
+        <v>64318.71573215332</v>
       </c>
       <c r="F89" t="n">
-        <v>7778.816768927077</v>
+        <v>48239.03679911499</v>
       </c>
       <c r="G89" t="n">
-        <v>12964.69461487846</v>
+        <v>80398.39466519165</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>8725.445264616616</v>
+        <v>54109.39577466866</v>
       </c>
       <c r="F90" t="n">
-        <v>6544.083948462461</v>
+        <v>40582.0468310015</v>
       </c>
       <c r="G90" t="n">
-        <v>10906.80658077077</v>
+        <v>67636.74471833583</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5871.840523987282</v>
+        <v>36413.24118169526</v>
       </c>
       <c r="F91" t="n">
-        <v>4403.880392990462</v>
+        <v>27309.93088627145</v>
       </c>
       <c r="G91" t="n">
-        <v>7339.800654984102</v>
+        <v>45516.55147711907</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>49396.7337886895</v>
+        <v>236364.9008338421</v>
       </c>
       <c r="F92" t="n">
-        <v>37047.55034151713</v>
+        <v>177273.6756253816</v>
       </c>
       <c r="G92" t="n">
-        <v>61745.91723586187</v>
+        <v>295456.1260423026</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30516.20442945707</v>
+        <v>146020.9831817958</v>
       </c>
       <c r="F93" t="n">
-        <v>22887.1533220928</v>
+        <v>109515.7373863468</v>
       </c>
       <c r="G93" t="n">
-        <v>38145.25553682134</v>
+        <v>182526.2289772448</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16465.57792956317</v>
+        <v>78788.30027794738</v>
       </c>
       <c r="F94" t="n">
-        <v>12349.18344717237</v>
+        <v>59091.22520846053</v>
       </c>
       <c r="G94" t="n">
-        <v>20581.97241195396</v>
+        <v>98485.37534743422</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10373.3140956248</v>
+        <v>49636.62917510685</v>
       </c>
       <c r="F95" t="n">
-        <v>7779.985571718596</v>
+        <v>37227.47188133014</v>
       </c>
       <c r="G95" t="n">
-        <v>12966.64261953099</v>
+        <v>62045.78646888355</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8726.756302668478</v>
+        <v>41757.79914731211</v>
       </c>
       <c r="F96" t="n">
-        <v>6545.067227001358</v>
+        <v>31318.34936048408</v>
       </c>
       <c r="G96" t="n">
-        <v>10908.4453783356</v>
+        <v>52197.24893414013</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5872.72279487753</v>
+        <v>28101.1604324679</v>
       </c>
       <c r="F97" t="n">
-        <v>4404.542096158148</v>
+        <v>21075.87032435092</v>
       </c>
       <c r="G97" t="n">
-        <v>7340.903493596911</v>
+        <v>35126.45054058487</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>49395.07981485825</v>
+        <v>160385.2747404714</v>
       </c>
       <c r="F98" t="n">
-        <v>37046.30986114369</v>
+        <v>120288.9560553536</v>
       </c>
       <c r="G98" t="n">
-        <v>61743.84976857282</v>
+        <v>200481.5934255893</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30515.1826411791</v>
+        <v>99082.4586174468</v>
       </c>
       <c r="F99" t="n">
-        <v>22886.38698088433</v>
+        <v>74311.84396308511</v>
       </c>
       <c r="G99" t="n">
-        <v>38143.97830147388</v>
+        <v>123853.0732718085</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16465.02660495275</v>
+        <v>53461.75824682383</v>
       </c>
       <c r="F100" t="n">
-        <v>12348.76995371456</v>
+        <v>40096.31868511786</v>
       </c>
       <c r="G100" t="n">
-        <v>20581.28325619094</v>
+        <v>66827.19780852977</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10372.96676112023</v>
+        <v>33680.90769549901</v>
       </c>
       <c r="F101" t="n">
-        <v>7779.725070840176</v>
+        <v>25260.68077162426</v>
       </c>
       <c r="G101" t="n">
-        <v>12966.20845140029</v>
+        <v>42101.13461937376</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>8726.464100624959</v>
+        <v>28334.73187081662</v>
       </c>
       <c r="F102" t="n">
-        <v>6544.848075468719</v>
+        <v>21251.04890311247</v>
       </c>
       <c r="G102" t="n">
-        <v>10908.0801257812</v>
+        <v>35418.41483852078</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5872.526155766482</v>
+        <v>19068.02710803383</v>
       </c>
       <c r="F103" t="n">
-        <v>4404.394616824862</v>
+        <v>14301.02033102537</v>
       </c>
       <c r="G103" t="n">
-        <v>7340.657694708102</v>
+        <v>23835.03388504228</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>49396.52025061573</v>
+        <v>109533.8350337143</v>
       </c>
       <c r="F104" t="n">
-        <v>37047.3901879618</v>
+        <v>82150.37627528576</v>
       </c>
       <c r="G104" t="n">
-        <v>61745.65031326967</v>
+        <v>136917.2937921429</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30516.07251038039</v>
+        <v>67667.56919860575</v>
       </c>
       <c r="F105" t="n">
-        <v>22887.05438278529</v>
+        <v>50750.67689895431</v>
       </c>
       <c r="G105" t="n">
-        <v>38145.09063797548</v>
+        <v>84584.46149825718</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16465.50675020524</v>
+        <v>36511.27834457145</v>
       </c>
       <c r="F106" t="n">
-        <v>12349.13006265393</v>
+        <v>27383.45875842858</v>
       </c>
       <c r="G106" t="n">
-        <v>20581.88343775655</v>
+        <v>45639.09793071431</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10373.2692526293</v>
+        <v>23002.10535708001</v>
       </c>
       <c r="F107" t="n">
-        <v>7779.951939471977</v>
+        <v>17251.57901781001</v>
       </c>
       <c r="G107" t="n">
-        <v>12966.58656578663</v>
+        <v>28752.63169635001</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>8726.718577608779</v>
+        <v>19350.97752262287</v>
       </c>
       <c r="F108" t="n">
-        <v>6545.038933206584</v>
+        <v>14513.23314196715</v>
       </c>
       <c r="G108" t="n">
-        <v>10908.39822201097</v>
+        <v>24188.72190327859</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5872.697407573202</v>
+        <v>13022.35594289715</v>
       </c>
       <c r="F109" t="n">
-        <v>4404.523055679903</v>
+        <v>9766.766957172862</v>
       </c>
       <c r="G109" t="n">
-        <v>7340.871759466504</v>
+        <v>16277.94492862144</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49391.4832885759</v>
+        <v>88692.84257593629</v>
       </c>
       <c r="F110" t="n">
-        <v>37043.61246643192</v>
+        <v>66519.63193195222</v>
       </c>
       <c r="G110" t="n">
-        <v>61739.35411071987</v>
+        <v>110866.0532199204</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30512.96078716466</v>
+        <v>54792.4671913562</v>
       </c>
       <c r="F111" t="n">
-        <v>22884.7205903735</v>
+        <v>41094.35039351715</v>
       </c>
       <c r="G111" t="n">
-        <v>38141.20098395584</v>
+        <v>68490.58398919526</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16463.82776285863</v>
+        <v>29564.28085864543</v>
       </c>
       <c r="F112" t="n">
-        <v>12347.87082214397</v>
+        <v>22173.21064398407</v>
       </c>
       <c r="G112" t="n">
-        <v>20579.78470357329</v>
+        <v>36955.35107330679</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10372.21149060094</v>
+        <v>18625.49694094662</v>
       </c>
       <c r="F113" t="n">
-        <v>7779.158617950704</v>
+        <v>13969.12270570997</v>
       </c>
       <c r="G113" t="n">
-        <v>12965.26436325117</v>
+        <v>23281.87117618328</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>8725.828714315076</v>
+        <v>15669.06885508208</v>
       </c>
       <c r="F114" t="n">
-        <v>6544.371535736307</v>
+        <v>11751.80164131156</v>
       </c>
       <c r="G114" t="n">
-        <v>10907.28589289384</v>
+        <v>19586.3360688526</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5872.098568752912</v>
+        <v>10544.5935062502</v>
       </c>
       <c r="F115" t="n">
-        <v>4404.073926564684</v>
+        <v>7908.445129687653</v>
       </c>
       <c r="G115" t="n">
-        <v>7340.12321094114</v>
+        <v>13180.74188281275</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46655.21834783145</v>
+        <v>258497.8767515519</v>
       </c>
       <c r="F116" t="n">
-        <v>34991.41376087359</v>
+        <v>193873.407563664</v>
       </c>
       <c r="G116" t="n">
-        <v>58319.02293478932</v>
+        <v>323122.34593944</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28822.55711266032</v>
+        <v>159694.2438598476</v>
       </c>
       <c r="F117" t="n">
-        <v>21616.91783449524</v>
+        <v>119770.6828948857</v>
       </c>
       <c r="G117" t="n">
-        <v>36028.1963908254</v>
+        <v>199617.8048248096</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>15551.73944927715</v>
+        <v>86165.95891718399</v>
       </c>
       <c r="F118" t="n">
-        <v>11663.80458695786</v>
+        <v>64624.46918788798</v>
       </c>
       <c r="G118" t="n">
-        <v>19439.67431159644</v>
+        <v>107707.44864648</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>9797.595853044606</v>
+        <v>54284.55411782592</v>
       </c>
       <c r="F119" t="n">
-        <v>7348.196889783454</v>
+        <v>40713.41558836943</v>
       </c>
       <c r="G119" t="n">
-        <v>12246.99481630576</v>
+        <v>67855.69264728238</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>8242.42190811689</v>
+        <v>45667.95822610751</v>
       </c>
       <c r="F120" t="n">
-        <v>6181.816431087668</v>
+        <v>34250.96866958064</v>
       </c>
       <c r="G120" t="n">
-        <v>10303.02738514611</v>
+        <v>57084.94778263439</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5546.787070242184</v>
+        <v>30732.52534712895</v>
       </c>
       <c r="F121" t="n">
-        <v>4160.090302681639</v>
+        <v>23049.39401034672</v>
       </c>
       <c r="G121" t="n">
-        <v>6933.483837802731</v>
+        <v>38415.65668391118</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43488.88748907444</v>
+        <v>111553.8339731463</v>
       </c>
       <c r="F122" t="n">
-        <v>32616.66561680584</v>
+        <v>83665.37547985972</v>
       </c>
       <c r="G122" t="n">
-        <v>54361.10936134306</v>
+        <v>139442.2924664329</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26866.46827102821</v>
+        <v>68915.47965452149</v>
       </c>
       <c r="F123" t="n">
-        <v>20149.85120327116</v>
+        <v>51686.60974089112</v>
       </c>
       <c r="G123" t="n">
-        <v>33583.08533878527</v>
+        <v>86144.34956815187</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>14496.29582969148</v>
+        <v>37184.6113243821</v>
       </c>
       <c r="F124" t="n">
-        <v>10872.22187226861</v>
+        <v>27888.45849328657</v>
       </c>
       <c r="G124" t="n">
-        <v>18120.36978711435</v>
+        <v>46480.76415547762</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9132.666372705635</v>
+        <v>23426.30513436073</v>
       </c>
       <c r="F125" t="n">
-        <v>6849.499779529226</v>
+        <v>17569.72885077054</v>
       </c>
       <c r="G125" t="n">
-        <v>11415.83296588204</v>
+        <v>29282.8814179509</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>7683.036789736487</v>
+        <v>19707.84400192251</v>
       </c>
       <c r="F126" t="n">
-        <v>5762.277592302365</v>
+        <v>14780.88300144189</v>
       </c>
       <c r="G126" t="n">
-        <v>9603.795987170606</v>
+        <v>24634.80500240314</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.51137236295</v>
       </c>
       <c r="F127" t="n">
-        <v>3877.759134442472</v>
+        <v>9946.883529272212</v>
       </c>
       <c r="G127" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.13921545368</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49389.31281858461</v>
+        <v>306279.5987245396</v>
       </c>
       <c r="F128" t="n">
-        <v>37041.98461393846</v>
+        <v>229709.6990434047</v>
       </c>
       <c r="G128" t="n">
-        <v>61736.64102323077</v>
+        <v>382849.4984056745</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30511.61991903672</v>
+        <v>189212.7298787156</v>
       </c>
       <c r="F129" t="n">
-        <v>22883.71493927754</v>
+        <v>141909.5474090367</v>
       </c>
       <c r="G129" t="n">
-        <v>38139.5248987959</v>
+        <v>236515.9123483945</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16463.10427286154</v>
+        <v>102093.1995748465</v>
       </c>
       <c r="F130" t="n">
-        <v>12347.32820464615</v>
+        <v>76569.89968113489</v>
       </c>
       <c r="G130" t="n">
-        <v>20578.88034107692</v>
+        <v>127616.4994685582</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>10371.75569190277</v>
+        <v>64318.71573215332</v>
       </c>
       <c r="F131" t="n">
-        <v>7778.816768927077</v>
+        <v>48239.03679911499</v>
       </c>
       <c r="G131" t="n">
-        <v>12964.69461487846</v>
+        <v>80398.39466519165</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>8725.445264616616</v>
+        <v>54109.39577466866</v>
       </c>
       <c r="F132" t="n">
-        <v>6544.083948462461</v>
+        <v>40582.0468310015</v>
       </c>
       <c r="G132" t="n">
-        <v>10906.80658077077</v>
+        <v>67636.74471833583</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5871.840523987282</v>
+        <v>36413.24118169526</v>
       </c>
       <c r="F133" t="n">
-        <v>4403.880392990462</v>
+        <v>27309.93088627145</v>
       </c>
       <c r="G133" t="n">
-        <v>7339.800654984102</v>
+        <v>45516.55147711907</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>49396.7337886895</v>
+        <v>236364.9008338421</v>
       </c>
       <c r="F134" t="n">
-        <v>37047.55034151713</v>
+        <v>177273.6756253816</v>
       </c>
       <c r="G134" t="n">
-        <v>61745.91723586187</v>
+        <v>295456.1260423026</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30516.20442945707</v>
+        <v>146020.9831817958</v>
       </c>
       <c r="F135" t="n">
-        <v>22887.1533220928</v>
+        <v>109515.7373863468</v>
       </c>
       <c r="G135" t="n">
-        <v>38145.25553682134</v>
+        <v>182526.2289772448</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16465.57792956317</v>
+        <v>78788.30027794738</v>
       </c>
       <c r="F136" t="n">
-        <v>12349.18344717237</v>
+        <v>59091.22520846053</v>
       </c>
       <c r="G136" t="n">
-        <v>20581.97241195396</v>
+        <v>98485.37534743422</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10373.3140956248</v>
+        <v>49636.62917510685</v>
       </c>
       <c r="F137" t="n">
-        <v>7779.985571718596</v>
+        <v>37227.47188133014</v>
       </c>
       <c r="G137" t="n">
-        <v>12966.64261953099</v>
+        <v>62045.78646888355</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>8726.756302668478</v>
+        <v>41757.79914731211</v>
       </c>
       <c r="F138" t="n">
-        <v>6545.067227001358</v>
+        <v>31318.34936048408</v>
       </c>
       <c r="G138" t="n">
-        <v>10908.4453783356</v>
+        <v>52197.24893414013</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5872.72279487753</v>
+        <v>28101.1604324679</v>
       </c>
       <c r="F139" t="n">
-        <v>4404.542096158148</v>
+        <v>21075.87032435092</v>
       </c>
       <c r="G139" t="n">
-        <v>7340.903493596911</v>
+        <v>35126.45054058487</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49395.07981485825</v>
+        <v>160385.2747404714</v>
       </c>
       <c r="F140" t="n">
-        <v>37046.30986114369</v>
+        <v>120288.9560553536</v>
       </c>
       <c r="G140" t="n">
-        <v>61743.84976857282</v>
+        <v>200481.5934255893</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30515.1826411791</v>
+        <v>99082.4586174468</v>
       </c>
       <c r="F141" t="n">
-        <v>22886.38698088433</v>
+        <v>74311.84396308511</v>
       </c>
       <c r="G141" t="n">
-        <v>38143.97830147388</v>
+        <v>123853.0732718085</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16465.02660495275</v>
+        <v>53461.75824682383</v>
       </c>
       <c r="F142" t="n">
-        <v>12348.76995371456</v>
+        <v>40096.31868511786</v>
       </c>
       <c r="G142" t="n">
-        <v>20581.28325619094</v>
+        <v>66827.19780852977</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10372.96676112023</v>
+        <v>33680.90769549901</v>
       </c>
       <c r="F143" t="n">
-        <v>7779.725070840176</v>
+        <v>25260.68077162426</v>
       </c>
       <c r="G143" t="n">
-        <v>12966.20845140029</v>
+        <v>42101.13461937376</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8726.464100624959</v>
+        <v>28334.73187081662</v>
       </c>
       <c r="F144" t="n">
-        <v>6544.848075468719</v>
+        <v>21251.04890311247</v>
       </c>
       <c r="G144" t="n">
-        <v>10908.0801257812</v>
+        <v>35418.41483852078</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5872.526155766482</v>
+        <v>19068.02710803383</v>
       </c>
       <c r="F145" t="n">
-        <v>4404.394616824862</v>
+        <v>14301.02033102537</v>
       </c>
       <c r="G145" t="n">
-        <v>7340.657694708102</v>
+        <v>23835.03388504228</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>49396.52025061573</v>
+        <v>109533.8350337143</v>
       </c>
       <c r="F146" t="n">
-        <v>37047.3901879618</v>
+        <v>82150.37627528576</v>
       </c>
       <c r="G146" t="n">
-        <v>61745.65031326967</v>
+        <v>136917.2937921429</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30516.07251038039</v>
+        <v>67667.56919860575</v>
       </c>
       <c r="F147" t="n">
-        <v>22887.05438278529</v>
+        <v>50750.67689895431</v>
       </c>
       <c r="G147" t="n">
-        <v>38145.09063797548</v>
+        <v>84584.46149825718</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16465.50675020524</v>
+        <v>36511.27834457145</v>
       </c>
       <c r="F148" t="n">
-        <v>12349.13006265393</v>
+        <v>27383.45875842858</v>
       </c>
       <c r="G148" t="n">
-        <v>20581.88343775655</v>
+        <v>45639.09793071431</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10373.2692526293</v>
+        <v>23002.10535708001</v>
       </c>
       <c r="F149" t="n">
-        <v>7779.951939471977</v>
+        <v>17251.57901781001</v>
       </c>
       <c r="G149" t="n">
-        <v>12966.58656578663</v>
+        <v>28752.63169635001</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8726.718577608779</v>
+        <v>19350.97752262287</v>
       </c>
       <c r="F150" t="n">
-        <v>6545.038933206584</v>
+        <v>14513.23314196715</v>
       </c>
       <c r="G150" t="n">
-        <v>10908.39822201097</v>
+        <v>24188.72190327859</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5872.697407573202</v>
+        <v>13022.35594289715</v>
       </c>
       <c r="F151" t="n">
-        <v>4404.523055679903</v>
+        <v>9766.766957172862</v>
       </c>
       <c r="G151" t="n">
-        <v>7340.871759466504</v>
+        <v>16277.94492862144</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>49391.4832885759</v>
+        <v>88692.84257593629</v>
       </c>
       <c r="F152" t="n">
-        <v>37043.61246643192</v>
+        <v>66519.63193195222</v>
       </c>
       <c r="G152" t="n">
-        <v>61739.35411071987</v>
+        <v>110866.0532199204</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30512.96078716466</v>
+        <v>54792.4671913562</v>
       </c>
       <c r="F153" t="n">
-        <v>22884.7205903735</v>
+        <v>41094.35039351715</v>
       </c>
       <c r="G153" t="n">
-        <v>38141.20098395584</v>
+        <v>68490.58398919526</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16463.82776285863</v>
+        <v>29564.28085864543</v>
       </c>
       <c r="F154" t="n">
-        <v>12347.87082214397</v>
+        <v>22173.21064398407</v>
       </c>
       <c r="G154" t="n">
-        <v>20579.78470357329</v>
+        <v>36955.35107330679</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10372.21149060094</v>
+        <v>18625.49694094662</v>
       </c>
       <c r="F155" t="n">
-        <v>7779.158617950704</v>
+        <v>13969.12270570997</v>
       </c>
       <c r="G155" t="n">
-        <v>12965.26436325117</v>
+        <v>23281.87117618328</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>8725.828714315076</v>
+        <v>15669.06885508208</v>
       </c>
       <c r="F156" t="n">
-        <v>6544.371535736307</v>
+        <v>11751.80164131156</v>
       </c>
       <c r="G156" t="n">
-        <v>10907.28589289384</v>
+        <v>19586.3360688526</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>5872.098568752912</v>
+        <v>10544.5935062502</v>
       </c>
       <c r="F157" t="n">
-        <v>4404.073926564684</v>
+        <v>7908.445129687653</v>
       </c>
       <c r="G157" t="n">
-        <v>7340.12321094114</v>
+        <v>13180.74188281275</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>46655.21834783145</v>
+        <v>258497.8767515519</v>
       </c>
       <c r="F158" t="n">
-        <v>34991.41376087359</v>
+        <v>193873.407563664</v>
       </c>
       <c r="G158" t="n">
-        <v>58319.02293478932</v>
+        <v>323122.34593944</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28822.55711266032</v>
+        <v>159694.2438598476</v>
       </c>
       <c r="F159" t="n">
-        <v>21616.91783449524</v>
+        <v>119770.6828948857</v>
       </c>
       <c r="G159" t="n">
-        <v>36028.1963908254</v>
+        <v>199617.8048248096</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>15551.73944927715</v>
+        <v>86165.95891718399</v>
       </c>
       <c r="F160" t="n">
-        <v>11663.80458695786</v>
+        <v>64624.46918788798</v>
       </c>
       <c r="G160" t="n">
-        <v>19439.67431159644</v>
+        <v>107707.44864648</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>9797.595853044606</v>
+        <v>54284.55411782592</v>
       </c>
       <c r="F161" t="n">
-        <v>7348.196889783454</v>
+        <v>40713.41558836943</v>
       </c>
       <c r="G161" t="n">
-        <v>12246.99481630576</v>
+        <v>67855.69264728238</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8242.42190811689</v>
+        <v>45667.95822610751</v>
       </c>
       <c r="F162" t="n">
-        <v>6181.816431087668</v>
+        <v>34250.96866958064</v>
       </c>
       <c r="G162" t="n">
-        <v>10303.02738514611</v>
+        <v>57084.94778263439</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5546.787070242184</v>
+        <v>30732.52534712895</v>
       </c>
       <c r="F163" t="n">
-        <v>4160.090302681639</v>
+        <v>23049.39401034672</v>
       </c>
       <c r="G163" t="n">
-        <v>6933.483837802731</v>
+        <v>38415.65668391118</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43488.88748907444</v>
+        <v>111553.8339731463</v>
       </c>
       <c r="F164" t="n">
-        <v>32616.66561680584</v>
+        <v>83665.37547985972</v>
       </c>
       <c r="G164" t="n">
-        <v>54361.10936134306</v>
+        <v>139442.2924664329</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26866.46827102821</v>
+        <v>68915.47965452149</v>
       </c>
       <c r="F165" t="n">
-        <v>20149.85120327116</v>
+        <v>51686.60974089112</v>
       </c>
       <c r="G165" t="n">
-        <v>33583.08533878527</v>
+        <v>86144.34956815187</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14496.29582969148</v>
+        <v>37184.6113243821</v>
       </c>
       <c r="F166" t="n">
-        <v>10872.22187226861</v>
+        <v>27888.45849328657</v>
       </c>
       <c r="G166" t="n">
-        <v>18120.36978711435</v>
+        <v>46480.76415547762</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9132.666372705635</v>
+        <v>23426.30513436073</v>
       </c>
       <c r="F167" t="n">
-        <v>6849.499779529226</v>
+        <v>17569.72885077054</v>
       </c>
       <c r="G167" t="n">
-        <v>11415.83296588204</v>
+        <v>29282.8814179509</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>7683.036789736487</v>
+        <v>19707.84400192251</v>
       </c>
       <c r="F168" t="n">
-        <v>5762.277592302365</v>
+        <v>14780.88300144189</v>
       </c>
       <c r="G168" t="n">
-        <v>9603.795987170606</v>
+        <v>24634.80500240314</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.51137236295</v>
       </c>
       <c r="F169" t="n">
-        <v>3877.759134442472</v>
+        <v>9946.883529272212</v>
       </c>
       <c r="G169" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.13921545368</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>49389.31281858461</v>
+        <v>306359.1012147038</v>
       </c>
       <c r="F170" t="n">
-        <v>37041.98461393846</v>
+        <v>229769.3259110279</v>
       </c>
       <c r="G170" t="n">
-        <v>61736.64102323077</v>
+        <v>382948.8765183798</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30511.61991903672</v>
+        <v>189261.844750417</v>
       </c>
       <c r="F171" t="n">
-        <v>22883.71493927754</v>
+        <v>141946.3835628128</v>
       </c>
       <c r="G171" t="n">
-        <v>38139.5248987959</v>
+        <v>236577.3059380213</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16463.10427286154</v>
+        <v>102119.7004049013</v>
       </c>
       <c r="F172" t="n">
-        <v>12347.32820464615</v>
+        <v>76589.77530367595</v>
       </c>
       <c r="G172" t="n">
-        <v>20578.88034107692</v>
+        <v>127649.6255061266</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>10371.75569190277</v>
+        <v>64335.41125508781</v>
       </c>
       <c r="F173" t="n">
-        <v>7778.816768927077</v>
+        <v>48251.55844131586</v>
       </c>
       <c r="G173" t="n">
-        <v>12964.69461487846</v>
+        <v>80419.26406885976</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>8725.445264616616</v>
+        <v>54123.44121459767</v>
       </c>
       <c r="F174" t="n">
-        <v>6544.083948462461</v>
+        <v>40592.58091094827</v>
       </c>
       <c r="G174" t="n">
-        <v>10906.80658077077</v>
+        <v>67654.3015182471</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>5871.840523987282</v>
+        <v>36422.69314441479</v>
       </c>
       <c r="F175" t="n">
-        <v>4403.880392990462</v>
+        <v>27317.01985831109</v>
       </c>
       <c r="G175" t="n">
-        <v>7339.800654984102</v>
+        <v>45528.36643051849</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49396.7337886895</v>
+        <v>236447.6259652995</v>
       </c>
       <c r="F176" t="n">
-        <v>37047.55034151713</v>
+        <v>177335.7194739746</v>
       </c>
       <c r="G176" t="n">
-        <v>61745.91723586187</v>
+        <v>295559.5324566244</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30516.20442945707</v>
+        <v>146072.0889296739</v>
       </c>
       <c r="F177" t="n">
-        <v>22887.1533220928</v>
+        <v>109554.0666972554</v>
       </c>
       <c r="G177" t="n">
-        <v>38145.25553682134</v>
+        <v>182590.1111620924</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16465.57792956317</v>
+        <v>78815.87532176651</v>
       </c>
       <c r="F178" t="n">
-        <v>12349.18344717237</v>
+        <v>59111.90649132487</v>
       </c>
       <c r="G178" t="n">
-        <v>20581.97241195396</v>
+        <v>98519.84415220814</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10373.3140956248</v>
+        <v>49654.0014527129</v>
       </c>
       <c r="F179" t="n">
-        <v>7779.985571718596</v>
+        <v>37240.50108953468</v>
       </c>
       <c r="G179" t="n">
-        <v>12966.64261953099</v>
+        <v>62067.50181589113</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>8726.756302668478</v>
+        <v>41772.41392053624</v>
       </c>
       <c r="F180" t="n">
-        <v>6545.067227001358</v>
+        <v>31329.31044040219</v>
       </c>
       <c r="G180" t="n">
-        <v>10908.4453783356</v>
+        <v>52215.51740067031</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5872.72279487753</v>
+        <v>28110.99553143005</v>
       </c>
       <c r="F181" t="n">
-        <v>4404.542096158148</v>
+        <v>21083.24664857254</v>
       </c>
       <c r="G181" t="n">
-        <v>7340.903493596911</v>
+        <v>35138.74441428756</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>49395.07981485825</v>
+        <v>160452.0153590651</v>
       </c>
       <c r="F182" t="n">
-        <v>37046.30986114369</v>
+        <v>120339.0115192988</v>
       </c>
       <c r="G182" t="n">
-        <v>61743.84976857282</v>
+        <v>200565.0191988314</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30515.1826411791</v>
+        <v>99123.68948848911</v>
       </c>
       <c r="F183" t="n">
-        <v>22886.38698088433</v>
+        <v>74342.76711636684</v>
       </c>
       <c r="G183" t="n">
-        <v>38143.97830147388</v>
+        <v>123904.6118606114</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16465.02660495275</v>
+        <v>53484.00511968837</v>
       </c>
       <c r="F184" t="n">
-        <v>12348.76995371456</v>
+        <v>40113.00383976628</v>
       </c>
       <c r="G184" t="n">
-        <v>20581.28325619094</v>
+        <v>66855.00639961047</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10372.96676112023</v>
+        <v>33694.92322540368</v>
       </c>
       <c r="F185" t="n">
-        <v>7779.725070840176</v>
+        <v>25271.19241905276</v>
       </c>
       <c r="G185" t="n">
-        <v>12966.20845140029</v>
+        <v>42118.65403175459</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>8726.464100624959</v>
+        <v>28346.52271343484</v>
       </c>
       <c r="F186" t="n">
-        <v>6544.848075468719</v>
+        <v>21259.89203507613</v>
       </c>
       <c r="G186" t="n">
-        <v>10908.0801257812</v>
+        <v>35433.15339179354</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>5872.526155766482</v>
+        <v>19075.96182602218</v>
       </c>
       <c r="F187" t="n">
-        <v>4404.394616824862</v>
+        <v>14306.97136951664</v>
       </c>
       <c r="G187" t="n">
-        <v>7340.657694708102</v>
+        <v>23844.95228252773</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>49396.52025061573</v>
+        <v>109583.570952293</v>
       </c>
       <c r="F188" t="n">
-        <v>37047.3901879618</v>
+        <v>82187.67821421978</v>
       </c>
       <c r="G188" t="n">
-        <v>61745.65031326967</v>
+        <v>136979.4636903663</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30516.07251038039</v>
+        <v>67698.29494386102</v>
       </c>
       <c r="F189" t="n">
-        <v>22887.05438278529</v>
+        <v>50773.72120789578</v>
       </c>
       <c r="G189" t="n">
-        <v>38145.09063797548</v>
+        <v>84622.86867982631</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>16465.50675020524</v>
+        <v>36527.85698409769</v>
       </c>
       <c r="F190" t="n">
-        <v>12349.13006265393</v>
+        <v>27395.89273807326</v>
       </c>
       <c r="G190" t="n">
-        <v>20581.88343775655</v>
+        <v>45659.82123012211</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>10373.2692526293</v>
+        <v>23012.54989998154</v>
       </c>
       <c r="F191" t="n">
-        <v>7779.951939471977</v>
+        <v>17259.41242498616</v>
       </c>
       <c r="G191" t="n">
-        <v>12966.58656578663</v>
+        <v>28765.68737497693</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>8726.718577608779</v>
+        <v>19359.76420157177</v>
       </c>
       <c r="F192" t="n">
-        <v>6545.038933206584</v>
+        <v>14519.82315117883</v>
       </c>
       <c r="G192" t="n">
-        <v>10908.39822201097</v>
+        <v>24199.70525196471</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5872.697407573202</v>
+        <v>13028.26899099484</v>
       </c>
       <c r="F193" t="n">
-        <v>4404.523055679903</v>
+        <v>9771.201743246129</v>
       </c>
       <c r="G193" t="n">
-        <v>7340.871759466504</v>
+        <v>16285.33623874355</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>49391.4832885759</v>
+        <v>88737.04525599073</v>
       </c>
       <c r="F194" t="n">
-        <v>37043.61246643192</v>
+        <v>66552.78394199305</v>
       </c>
       <c r="G194" t="n">
-        <v>61739.35411071987</v>
+        <v>110921.3065699884</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30512.96078716466</v>
+        <v>54819.77462481205</v>
       </c>
       <c r="F195" t="n">
-        <v>22884.7205903735</v>
+        <v>41114.83096860904</v>
       </c>
       <c r="G195" t="n">
-        <v>38141.20098395584</v>
+        <v>68524.71828101507</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16463.82776285863</v>
+        <v>29579.01508533025</v>
       </c>
       <c r="F196" t="n">
-        <v>12347.87082214397</v>
+        <v>22184.26131399768</v>
       </c>
       <c r="G196" t="n">
-        <v>20579.78470357329</v>
+        <v>36973.76885666281</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10372.21149060094</v>
+        <v>18634.77950375806</v>
       </c>
       <c r="F197" t="n">
-        <v>7779.158617950704</v>
+        <v>13976.08462781854</v>
       </c>
       <c r="G197" t="n">
-        <v>12965.26436325117</v>
+        <v>23293.47437969757</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>8725.828714315076</v>
+        <v>15676.87799522503</v>
       </c>
       <c r="F198" t="n">
-        <v>6544.371535736307</v>
+        <v>11757.65849641877</v>
       </c>
       <c r="G198" t="n">
-        <v>10907.28589289384</v>
+        <v>19596.09749403129</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5872.098568752912</v>
+        <v>10549.84871376779</v>
       </c>
       <c r="F199" t="n">
-        <v>4404.073926564684</v>
+        <v>7912.386535325841</v>
       </c>
       <c r="G199" t="n">
-        <v>7340.12321094114</v>
+        <v>13187.31089220973</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>46655.21834783145</v>
+        <v>258547.0002858121</v>
       </c>
       <c r="F200" t="n">
-        <v>34991.41376087359</v>
+        <v>193910.2502143591</v>
       </c>
       <c r="G200" t="n">
-        <v>58319.02293478932</v>
+        <v>323183.7503572652</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28822.55711266032</v>
+        <v>159724.5912876795</v>
       </c>
       <c r="F201" t="n">
-        <v>21616.91783449524</v>
+        <v>119793.4434657596</v>
       </c>
       <c r="G201" t="n">
-        <v>36028.1963908254</v>
+        <v>199655.7391095994</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15551.73944927715</v>
+        <v>86182.33342860406</v>
       </c>
       <c r="F202" t="n">
-        <v>11663.80458695786</v>
+        <v>64636.75007145303</v>
       </c>
       <c r="G202" t="n">
-        <v>19439.67431159644</v>
+        <v>107727.9167857551</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>9797.595853044606</v>
+        <v>54294.87006002056</v>
       </c>
       <c r="F203" t="n">
-        <v>7348.196889783454</v>
+        <v>40721.15254501541</v>
       </c>
       <c r="G203" t="n">
-        <v>12246.99481630576</v>
+        <v>67868.5875750257</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>8242.42190811689</v>
+        <v>45676.63671716015</v>
       </c>
       <c r="F204" t="n">
-        <v>6181.816431087668</v>
+        <v>34257.47753787012</v>
       </c>
       <c r="G204" t="n">
-        <v>10303.02738514611</v>
+        <v>57095.79589645018</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>5546.787070242184</v>
+        <v>30738.36558953545</v>
       </c>
       <c r="F205" t="n">
-        <v>4160.090302681639</v>
+        <v>23053.77419215158</v>
       </c>
       <c r="G205" t="n">
-        <v>6933.483837802731</v>
+        <v>38422.9569869193</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43488.88748907444</v>
+        <v>111557.9158649243</v>
       </c>
       <c r="F206" t="n">
-        <v>32616.66561680584</v>
+        <v>83668.43689869325</v>
       </c>
       <c r="G206" t="n">
-        <v>54361.10936134306</v>
+        <v>139447.3948311554</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26866.46827102821</v>
+        <v>68918.00135655326</v>
       </c>
       <c r="F207" t="n">
-        <v>20149.85120327116</v>
+        <v>51688.50101741494</v>
       </c>
       <c r="G207" t="n">
-        <v>33583.08533878527</v>
+        <v>86147.50169569158</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14496.29582969148</v>
+        <v>37185.97195497478</v>
       </c>
       <c r="F208" t="n">
-        <v>10872.22187226861</v>
+        <v>27889.47896623108</v>
       </c>
       <c r="G208" t="n">
-        <v>18120.36978711435</v>
+        <v>46482.46494371848</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9132.666372705635</v>
+        <v>23427.16233163411</v>
       </c>
       <c r="F209" t="n">
-        <v>6849.499779529226</v>
+        <v>17570.37174872559</v>
       </c>
       <c r="G209" t="n">
-        <v>11415.83296588204</v>
+        <v>29283.95291454264</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>7683.036789736487</v>
+        <v>19708.56513613663</v>
       </c>
       <c r="F210" t="n">
-        <v>5762.277592302365</v>
+        <v>14781.42385210248</v>
       </c>
       <c r="G210" t="n">
-        <v>9603.795987170606</v>
+        <v>24635.70642017079</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.996663941</v>
       </c>
       <c r="F211" t="n">
-        <v>3877.759134442472</v>
+        <v>9947.247497955754</v>
       </c>
       <c r="G211" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.74582992625</v>
       </c>
     </row>
     <row r="212">
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>49389.31281858461</v>
+        <v>306279.5987245396</v>
       </c>
       <c r="F212" t="n">
-        <v>37041.98461393846</v>
+        <v>229709.6990434047</v>
       </c>
       <c r="G212" t="n">
-        <v>61736.64102323077</v>
+        <v>382849.4984056745</v>
       </c>
     </row>
     <row r="213">
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30511.61991903672</v>
+        <v>189212.7298787156</v>
       </c>
       <c r="F213" t="n">
-        <v>22883.71493927754</v>
+        <v>141909.5474090367</v>
       </c>
       <c r="G213" t="n">
-        <v>38139.5248987959</v>
+        <v>236515.9123483945</v>
       </c>
     </row>
     <row r="214">
@@ -6633,13 +6633,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16463.10427286154</v>
+        <v>102093.1995748465</v>
       </c>
       <c r="F214" t="n">
-        <v>12347.32820464615</v>
+        <v>76569.89968113489</v>
       </c>
       <c r="G214" t="n">
-        <v>20578.88034107692</v>
+        <v>127616.4994685582</v>
       </c>
     </row>
     <row r="215">
@@ -6662,13 +6662,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10371.75569190277</v>
+        <v>64318.71573215332</v>
       </c>
       <c r="F215" t="n">
-        <v>7778.816768927077</v>
+        <v>48239.03679911499</v>
       </c>
       <c r="G215" t="n">
-        <v>12964.69461487846</v>
+        <v>80398.39466519165</v>
       </c>
     </row>
     <row r="216">
@@ -6691,13 +6691,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8725.445264616616</v>
+        <v>54109.39577466866</v>
       </c>
       <c r="F216" t="n">
-        <v>6544.083948462461</v>
+        <v>40582.0468310015</v>
       </c>
       <c r="G216" t="n">
-        <v>10906.80658077077</v>
+        <v>67636.74471833583</v>
       </c>
     </row>
     <row r="217">
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>5871.840523987282</v>
+        <v>36413.24118169526</v>
       </c>
       <c r="F217" t="n">
-        <v>4403.880392990462</v>
+        <v>27309.93088627145</v>
       </c>
       <c r="G217" t="n">
-        <v>7339.800654984102</v>
+        <v>45516.55147711907</v>
       </c>
     </row>
     <row r="218">
@@ -6749,13 +6749,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49396.7337886895</v>
+        <v>236364.9008338421</v>
       </c>
       <c r="F218" t="n">
-        <v>37047.55034151713</v>
+        <v>177273.6756253816</v>
       </c>
       <c r="G218" t="n">
-        <v>61745.91723586187</v>
+        <v>295456.1260423026</v>
       </c>
     </row>
     <row r="219">
@@ -6778,13 +6778,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30516.20442945707</v>
+        <v>146020.9831817958</v>
       </c>
       <c r="F219" t="n">
-        <v>22887.1533220928</v>
+        <v>109515.7373863468</v>
       </c>
       <c r="G219" t="n">
-        <v>38145.25553682134</v>
+        <v>182526.2289772448</v>
       </c>
     </row>
     <row r="220">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16465.57792956317</v>
+        <v>78788.30027794738</v>
       </c>
       <c r="F220" t="n">
-        <v>12349.18344717237</v>
+        <v>59091.22520846053</v>
       </c>
       <c r="G220" t="n">
-        <v>20581.97241195396</v>
+        <v>98485.37534743422</v>
       </c>
     </row>
     <row r="221">
@@ -6836,13 +6836,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10373.3140956248</v>
+        <v>49636.62917510685</v>
       </c>
       <c r="F221" t="n">
-        <v>7779.985571718596</v>
+        <v>37227.47188133014</v>
       </c>
       <c r="G221" t="n">
-        <v>12966.64261953099</v>
+        <v>62045.78646888355</v>
       </c>
     </row>
     <row r="222">
@@ -6865,13 +6865,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>8726.756302668478</v>
+        <v>41757.79914731211</v>
       </c>
       <c r="F222" t="n">
-        <v>6545.067227001358</v>
+        <v>31318.34936048408</v>
       </c>
       <c r="G222" t="n">
-        <v>10908.4453783356</v>
+        <v>52197.24893414013</v>
       </c>
     </row>
     <row r="223">
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>5872.72279487753</v>
+        <v>28101.1604324679</v>
       </c>
       <c r="F223" t="n">
-        <v>4404.542096158148</v>
+        <v>21075.87032435092</v>
       </c>
       <c r="G223" t="n">
-        <v>7340.903493596911</v>
+        <v>35126.45054058487</v>
       </c>
     </row>
     <row r="224">
@@ -6923,13 +6923,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49395.07981485825</v>
+        <v>160385.2747404714</v>
       </c>
       <c r="F224" t="n">
-        <v>37046.30986114369</v>
+        <v>120288.9560553536</v>
       </c>
       <c r="G224" t="n">
-        <v>61743.84976857282</v>
+        <v>200481.5934255893</v>
       </c>
     </row>
     <row r="225">
@@ -6952,13 +6952,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30515.1826411791</v>
+        <v>99082.4586174468</v>
       </c>
       <c r="F225" t="n">
-        <v>22886.38698088433</v>
+        <v>74311.84396308511</v>
       </c>
       <c r="G225" t="n">
-        <v>38143.97830147388</v>
+        <v>123853.0732718085</v>
       </c>
     </row>
     <row r="226">
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16465.02660495275</v>
+        <v>53461.75824682383</v>
       </c>
       <c r="F226" t="n">
-        <v>12348.76995371456</v>
+        <v>40096.31868511786</v>
       </c>
       <c r="G226" t="n">
-        <v>20581.28325619094</v>
+        <v>66827.19780852977</v>
       </c>
     </row>
     <row r="227">
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>10372.96676112023</v>
+        <v>33680.90769549901</v>
       </c>
       <c r="F227" t="n">
-        <v>7779.725070840176</v>
+        <v>25260.68077162426</v>
       </c>
       <c r="G227" t="n">
-        <v>12966.20845140029</v>
+        <v>42101.13461937376</v>
       </c>
     </row>
     <row r="228">
@@ -7039,13 +7039,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8726.464100624959</v>
+        <v>28334.73187081662</v>
       </c>
       <c r="F228" t="n">
-        <v>6544.848075468719</v>
+        <v>21251.04890311247</v>
       </c>
       <c r="G228" t="n">
-        <v>10908.0801257812</v>
+        <v>35418.41483852078</v>
       </c>
     </row>
     <row r="229">
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5872.526155766482</v>
+        <v>19068.02710803383</v>
       </c>
       <c r="F229" t="n">
-        <v>4404.394616824862</v>
+        <v>14301.02033102537</v>
       </c>
       <c r="G229" t="n">
-        <v>7340.657694708102</v>
+        <v>23835.03388504228</v>
       </c>
     </row>
     <row r="230">
@@ -7097,13 +7097,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49396.52025061573</v>
+        <v>109533.8350337143</v>
       </c>
       <c r="F230" t="n">
-        <v>37047.3901879618</v>
+        <v>82150.37627528576</v>
       </c>
       <c r="G230" t="n">
-        <v>61745.65031326967</v>
+        <v>136917.2937921429</v>
       </c>
     </row>
     <row r="231">
@@ -7126,13 +7126,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30516.07251038039</v>
+        <v>67667.56919860575</v>
       </c>
       <c r="F231" t="n">
-        <v>22887.05438278529</v>
+        <v>50750.67689895431</v>
       </c>
       <c r="G231" t="n">
-        <v>38145.09063797548</v>
+        <v>84584.46149825718</v>
       </c>
     </row>
     <row r="232">
@@ -7155,13 +7155,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16465.50675020524</v>
+        <v>36511.27834457145</v>
       </c>
       <c r="F232" t="n">
-        <v>12349.13006265393</v>
+        <v>27383.45875842858</v>
       </c>
       <c r="G232" t="n">
-        <v>20581.88343775655</v>
+        <v>45639.09793071431</v>
       </c>
     </row>
     <row r="233">
@@ -7184,13 +7184,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10373.2692526293</v>
+        <v>23002.10535708001</v>
       </c>
       <c r="F233" t="n">
-        <v>7779.951939471977</v>
+        <v>17251.57901781001</v>
       </c>
       <c r="G233" t="n">
-        <v>12966.58656578663</v>
+        <v>28752.63169635001</v>
       </c>
     </row>
     <row r="234">
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8726.718577608779</v>
+        <v>19350.97752262287</v>
       </c>
       <c r="F234" t="n">
-        <v>6545.038933206584</v>
+        <v>14513.23314196715</v>
       </c>
       <c r="G234" t="n">
-        <v>10908.39822201097</v>
+        <v>24188.72190327859</v>
       </c>
     </row>
     <row r="235">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>5872.697407573202</v>
+        <v>13022.35594289715</v>
       </c>
       <c r="F235" t="n">
-        <v>4404.523055679903</v>
+        <v>9766.766957172862</v>
       </c>
       <c r="G235" t="n">
-        <v>7340.871759466504</v>
+        <v>16277.94492862144</v>
       </c>
     </row>
     <row r="236">
@@ -7271,13 +7271,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49391.4832885759</v>
+        <v>88692.84257593629</v>
       </c>
       <c r="F236" t="n">
-        <v>37043.61246643192</v>
+        <v>66519.63193195222</v>
       </c>
       <c r="G236" t="n">
-        <v>61739.35411071987</v>
+        <v>110866.0532199204</v>
       </c>
     </row>
     <row r="237">
@@ -7300,13 +7300,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30512.96078716466</v>
+        <v>54792.4671913562</v>
       </c>
       <c r="F237" t="n">
-        <v>22884.7205903735</v>
+        <v>41094.35039351715</v>
       </c>
       <c r="G237" t="n">
-        <v>38141.20098395584</v>
+        <v>68490.58398919526</v>
       </c>
     </row>
     <row r="238">
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16463.82776285863</v>
+        <v>29564.28085864543</v>
       </c>
       <c r="F238" t="n">
-        <v>12347.87082214397</v>
+        <v>22173.21064398407</v>
       </c>
       <c r="G238" t="n">
-        <v>20579.78470357329</v>
+        <v>36955.35107330679</v>
       </c>
     </row>
     <row r="239">
@@ -7358,13 +7358,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>10372.21149060094</v>
+        <v>18625.49694094662</v>
       </c>
       <c r="F239" t="n">
-        <v>7779.158617950704</v>
+        <v>13969.12270570997</v>
       </c>
       <c r="G239" t="n">
-        <v>12965.26436325117</v>
+        <v>23281.87117618328</v>
       </c>
     </row>
     <row r="240">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8725.828714315076</v>
+        <v>15669.06885508208</v>
       </c>
       <c r="F240" t="n">
-        <v>6544.371535736307</v>
+        <v>11751.80164131156</v>
       </c>
       <c r="G240" t="n">
-        <v>10907.28589289384</v>
+        <v>19586.3360688526</v>
       </c>
     </row>
     <row r="241">
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5872.098568752912</v>
+        <v>10544.5935062502</v>
       </c>
       <c r="F241" t="n">
-        <v>4404.073926564684</v>
+        <v>7908.445129687653</v>
       </c>
       <c r="G241" t="n">
-        <v>7340.12321094114</v>
+        <v>13180.74188281275</v>
       </c>
     </row>
     <row r="242">
@@ -7445,13 +7445,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46655.21834783145</v>
+        <v>258497.8767515519</v>
       </c>
       <c r="F242" t="n">
-        <v>34991.41376087359</v>
+        <v>193873.407563664</v>
       </c>
       <c r="G242" t="n">
-        <v>58319.02293478932</v>
+        <v>323122.34593944</v>
       </c>
     </row>
     <row r="243">
@@ -7474,13 +7474,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28822.55711266032</v>
+        <v>159694.2438598476</v>
       </c>
       <c r="F243" t="n">
-        <v>21616.91783449524</v>
+        <v>119770.6828948857</v>
       </c>
       <c r="G243" t="n">
-        <v>36028.1963908254</v>
+        <v>199617.8048248096</v>
       </c>
     </row>
     <row r="244">
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15551.73944927715</v>
+        <v>86165.95891718399</v>
       </c>
       <c r="F244" t="n">
-        <v>11663.80458695786</v>
+        <v>64624.46918788798</v>
       </c>
       <c r="G244" t="n">
-        <v>19439.67431159644</v>
+        <v>107707.44864648</v>
       </c>
     </row>
     <row r="245">
@@ -7532,13 +7532,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9797.595853044606</v>
+        <v>54284.55411782592</v>
       </c>
       <c r="F245" t="n">
-        <v>7348.196889783454</v>
+        <v>40713.41558836943</v>
       </c>
       <c r="G245" t="n">
-        <v>12246.99481630576</v>
+        <v>67855.69264728238</v>
       </c>
     </row>
     <row r="246">
@@ -7561,13 +7561,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8242.42190811689</v>
+        <v>45667.95822610751</v>
       </c>
       <c r="F246" t="n">
-        <v>6181.816431087668</v>
+        <v>34250.96866958064</v>
       </c>
       <c r="G246" t="n">
-        <v>10303.02738514611</v>
+        <v>57084.94778263439</v>
       </c>
     </row>
     <row r="247">
@@ -7590,13 +7590,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5546.787070242184</v>
+        <v>30732.52534712895</v>
       </c>
       <c r="F247" t="n">
-        <v>4160.090302681639</v>
+        <v>23049.39401034672</v>
       </c>
       <c r="G247" t="n">
-        <v>6933.483837802731</v>
+        <v>38415.65668391118</v>
       </c>
     </row>
     <row r="248">
@@ -7619,13 +7619,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>43488.88748907444</v>
+        <v>111553.8339731463</v>
       </c>
       <c r="F248" t="n">
-        <v>32616.66561680584</v>
+        <v>83665.37547985972</v>
       </c>
       <c r="G248" t="n">
-        <v>54361.10936134306</v>
+        <v>139442.2924664329</v>
       </c>
     </row>
     <row r="249">
@@ -7648,13 +7648,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26866.46827102821</v>
+        <v>68915.47965452149</v>
       </c>
       <c r="F249" t="n">
-        <v>20149.85120327116</v>
+        <v>51686.60974089112</v>
       </c>
       <c r="G249" t="n">
-        <v>33583.08533878527</v>
+        <v>86144.34956815187</v>
       </c>
     </row>
     <row r="250">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14496.29582969148</v>
+        <v>37184.6113243821</v>
       </c>
       <c r="F250" t="n">
-        <v>10872.22187226861</v>
+        <v>27888.45849328657</v>
       </c>
       <c r="G250" t="n">
-        <v>18120.36978711435</v>
+        <v>46480.76415547762</v>
       </c>
     </row>
     <row r="251">
@@ -7706,13 +7706,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>9132.666372705635</v>
+        <v>23426.30513436073</v>
       </c>
       <c r="F251" t="n">
-        <v>6849.499779529226</v>
+        <v>17569.72885077054</v>
       </c>
       <c r="G251" t="n">
-        <v>11415.83296588204</v>
+        <v>29282.8814179509</v>
       </c>
     </row>
     <row r="252">
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>7683.036789736487</v>
+        <v>19707.84400192251</v>
       </c>
       <c r="F252" t="n">
-        <v>5762.277592302365</v>
+        <v>14780.88300144189</v>
       </c>
       <c r="G252" t="n">
-        <v>9603.795987170606</v>
+        <v>24634.80500240314</v>
       </c>
     </row>
     <row r="253">
@@ -7764,13 +7764,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.51137236295</v>
       </c>
       <c r="F253" t="n">
-        <v>3877.759134442472</v>
+        <v>9946.883529272212</v>
       </c>
       <c r="G253" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.13921545368</v>
       </c>
     </row>
     <row r="254">
@@ -7793,13 +7793,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>49389.31281858461</v>
+        <v>306279.5987245396</v>
       </c>
       <c r="F254" t="n">
-        <v>37041.98461393846</v>
+        <v>229709.6990434047</v>
       </c>
       <c r="G254" t="n">
-        <v>61736.64102323077</v>
+        <v>382849.4984056745</v>
       </c>
     </row>
     <row r="255">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30511.61991903672</v>
+        <v>189212.7298787156</v>
       </c>
       <c r="F255" t="n">
-        <v>22883.71493927754</v>
+        <v>141909.5474090367</v>
       </c>
       <c r="G255" t="n">
-        <v>38139.5248987959</v>
+        <v>236515.9123483945</v>
       </c>
     </row>
     <row r="256">
@@ -7851,13 +7851,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16463.10427286154</v>
+        <v>102093.1995748465</v>
       </c>
       <c r="F256" t="n">
-        <v>12347.32820464615</v>
+        <v>76569.89968113489</v>
       </c>
       <c r="G256" t="n">
-        <v>20578.88034107692</v>
+        <v>127616.4994685582</v>
       </c>
     </row>
     <row r="257">
@@ -7880,13 +7880,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10371.75569190277</v>
+        <v>64318.71573215332</v>
       </c>
       <c r="F257" t="n">
-        <v>7778.816768927077</v>
+        <v>48239.03679911499</v>
       </c>
       <c r="G257" t="n">
-        <v>12964.69461487846</v>
+        <v>80398.39466519165</v>
       </c>
     </row>
     <row r="258">
@@ -7909,13 +7909,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>8725.445264616616</v>
+        <v>54109.39577466866</v>
       </c>
       <c r="F258" t="n">
-        <v>6544.083948462461</v>
+        <v>40582.0468310015</v>
       </c>
       <c r="G258" t="n">
-        <v>10906.80658077077</v>
+        <v>67636.74471833583</v>
       </c>
     </row>
     <row r="259">
@@ -7938,13 +7938,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5871.840523987282</v>
+        <v>36413.24118169526</v>
       </c>
       <c r="F259" t="n">
-        <v>4403.880392990462</v>
+        <v>27309.93088627145</v>
       </c>
       <c r="G259" t="n">
-        <v>7339.800654984102</v>
+        <v>45516.55147711907</v>
       </c>
     </row>
     <row r="260">
@@ -7967,13 +7967,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49396.7337886895</v>
+        <v>236364.9008338421</v>
       </c>
       <c r="F260" t="n">
-        <v>37047.55034151713</v>
+        <v>177273.6756253816</v>
       </c>
       <c r="G260" t="n">
-        <v>61745.91723586187</v>
+        <v>295456.1260423026</v>
       </c>
     </row>
     <row r="261">
@@ -7996,13 +7996,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30516.20442945707</v>
+        <v>146020.9831817958</v>
       </c>
       <c r="F261" t="n">
-        <v>22887.1533220928</v>
+        <v>109515.7373863468</v>
       </c>
       <c r="G261" t="n">
-        <v>38145.25553682134</v>
+        <v>182526.2289772448</v>
       </c>
     </row>
     <row r="262">
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>16465.57792956317</v>
+        <v>78788.30027794738</v>
       </c>
       <c r="F262" t="n">
-        <v>12349.18344717237</v>
+        <v>59091.22520846053</v>
       </c>
       <c r="G262" t="n">
-        <v>20581.97241195396</v>
+        <v>98485.37534743422</v>
       </c>
     </row>
     <row r="263">
@@ -8054,13 +8054,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10373.3140956248</v>
+        <v>49636.62917510685</v>
       </c>
       <c r="F263" t="n">
-        <v>7779.985571718596</v>
+        <v>37227.47188133014</v>
       </c>
       <c r="G263" t="n">
-        <v>12966.64261953099</v>
+        <v>62045.78646888355</v>
       </c>
     </row>
     <row r="264">
@@ -8083,13 +8083,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>8726.756302668478</v>
+        <v>41757.79914731211</v>
       </c>
       <c r="F264" t="n">
-        <v>6545.067227001358</v>
+        <v>31318.34936048408</v>
       </c>
       <c r="G264" t="n">
-        <v>10908.4453783356</v>
+        <v>52197.24893414013</v>
       </c>
     </row>
     <row r="265">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>5872.72279487753</v>
+        <v>28101.1604324679</v>
       </c>
       <c r="F265" t="n">
-        <v>4404.542096158148</v>
+        <v>21075.87032435092</v>
       </c>
       <c r="G265" t="n">
-        <v>7340.903493596911</v>
+        <v>35126.45054058487</v>
       </c>
     </row>
     <row r="266">
@@ -8141,13 +8141,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49395.07981485825</v>
+        <v>160385.2747404714</v>
       </c>
       <c r="F266" t="n">
-        <v>37046.30986114369</v>
+        <v>120288.9560553536</v>
       </c>
       <c r="G266" t="n">
-        <v>61743.84976857282</v>
+        <v>200481.5934255893</v>
       </c>
     </row>
     <row r="267">
@@ -8170,13 +8170,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30515.1826411791</v>
+        <v>99082.4586174468</v>
       </c>
       <c r="F267" t="n">
-        <v>22886.38698088433</v>
+        <v>74311.84396308511</v>
       </c>
       <c r="G267" t="n">
-        <v>38143.97830147388</v>
+        <v>123853.0732718085</v>
       </c>
     </row>
     <row r="268">
@@ -8199,13 +8199,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16465.02660495275</v>
+        <v>53461.75824682383</v>
       </c>
       <c r="F268" t="n">
-        <v>12348.76995371456</v>
+        <v>40096.31868511786</v>
       </c>
       <c r="G268" t="n">
-        <v>20581.28325619094</v>
+        <v>66827.19780852977</v>
       </c>
     </row>
     <row r="269">
@@ -8228,13 +8228,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10372.96676112023</v>
+        <v>33680.90769549901</v>
       </c>
       <c r="F269" t="n">
-        <v>7779.725070840176</v>
+        <v>25260.68077162426</v>
       </c>
       <c r="G269" t="n">
-        <v>12966.20845140029</v>
+        <v>42101.13461937376</v>
       </c>
     </row>
     <row r="270">
@@ -8257,13 +8257,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8726.464100624959</v>
+        <v>28334.73187081662</v>
       </c>
       <c r="F270" t="n">
-        <v>6544.848075468719</v>
+        <v>21251.04890311247</v>
       </c>
       <c r="G270" t="n">
-        <v>10908.0801257812</v>
+        <v>35418.41483852078</v>
       </c>
     </row>
     <row r="271">
@@ -8286,13 +8286,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5872.526155766482</v>
+        <v>19068.02710803383</v>
       </c>
       <c r="F271" t="n">
-        <v>4404.394616824862</v>
+        <v>14301.02033102537</v>
       </c>
       <c r="G271" t="n">
-        <v>7340.657694708102</v>
+        <v>23835.03388504228</v>
       </c>
     </row>
     <row r="272">
@@ -8315,13 +8315,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>49396.52025061573</v>
+        <v>109533.8350337143</v>
       </c>
       <c r="F272" t="n">
-        <v>37047.3901879618</v>
+        <v>82150.37627528576</v>
       </c>
       <c r="G272" t="n">
-        <v>61745.65031326967</v>
+        <v>136917.2937921429</v>
       </c>
     </row>
     <row r="273">
@@ -8344,13 +8344,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30516.07251038039</v>
+        <v>67667.56919860575</v>
       </c>
       <c r="F273" t="n">
-        <v>22887.05438278529</v>
+        <v>50750.67689895431</v>
       </c>
       <c r="G273" t="n">
-        <v>38145.09063797548</v>
+        <v>84584.46149825718</v>
       </c>
     </row>
     <row r="274">
@@ -8373,13 +8373,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16465.50675020524</v>
+        <v>36511.27834457145</v>
       </c>
       <c r="F274" t="n">
-        <v>12349.13006265393</v>
+        <v>27383.45875842858</v>
       </c>
       <c r="G274" t="n">
-        <v>20581.88343775655</v>
+        <v>45639.09793071431</v>
       </c>
     </row>
     <row r="275">
@@ -8402,13 +8402,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>10373.2692526293</v>
+        <v>23002.10535708001</v>
       </c>
       <c r="F275" t="n">
-        <v>7779.951939471977</v>
+        <v>17251.57901781001</v>
       </c>
       <c r="G275" t="n">
-        <v>12966.58656578663</v>
+        <v>28752.63169635001</v>
       </c>
     </row>
     <row r="276">
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8726.718577608779</v>
+        <v>19350.97752262287</v>
       </c>
       <c r="F276" t="n">
-        <v>6545.038933206584</v>
+        <v>14513.23314196715</v>
       </c>
       <c r="G276" t="n">
-        <v>10908.39822201097</v>
+        <v>24188.72190327859</v>
       </c>
     </row>
     <row r="277">
@@ -8460,13 +8460,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>5872.697407573202</v>
+        <v>13022.35594289715</v>
       </c>
       <c r="F277" t="n">
-        <v>4404.523055679903</v>
+        <v>9766.766957172862</v>
       </c>
       <c r="G277" t="n">
-        <v>7340.871759466504</v>
+        <v>16277.94492862144</v>
       </c>
     </row>
     <row r="278">
@@ -8489,13 +8489,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>49391.4832885759</v>
+        <v>88692.84257593629</v>
       </c>
       <c r="F278" t="n">
-        <v>37043.61246643192</v>
+        <v>66519.63193195222</v>
       </c>
       <c r="G278" t="n">
-        <v>61739.35411071987</v>
+        <v>110866.0532199204</v>
       </c>
     </row>
     <row r="279">
@@ -8518,13 +8518,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30512.96078716466</v>
+        <v>54792.4671913562</v>
       </c>
       <c r="F279" t="n">
-        <v>22884.7205903735</v>
+        <v>41094.35039351715</v>
       </c>
       <c r="G279" t="n">
-        <v>38141.20098395584</v>
+        <v>68490.58398919526</v>
       </c>
     </row>
     <row r="280">
@@ -8547,13 +8547,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16463.82776285863</v>
+        <v>29564.28085864543</v>
       </c>
       <c r="F280" t="n">
-        <v>12347.87082214397</v>
+        <v>22173.21064398407</v>
       </c>
       <c r="G280" t="n">
-        <v>20579.78470357329</v>
+        <v>36955.35107330679</v>
       </c>
     </row>
     <row r="281">
@@ -8576,13 +8576,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10372.21149060094</v>
+        <v>18625.49694094662</v>
       </c>
       <c r="F281" t="n">
-        <v>7779.158617950704</v>
+        <v>13969.12270570997</v>
       </c>
       <c r="G281" t="n">
-        <v>12965.26436325117</v>
+        <v>23281.87117618328</v>
       </c>
     </row>
     <row r="282">
@@ -8605,13 +8605,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8725.828714315076</v>
+        <v>15669.06885508208</v>
       </c>
       <c r="F282" t="n">
-        <v>6544.371535736307</v>
+        <v>11751.80164131156</v>
       </c>
       <c r="G282" t="n">
-        <v>10907.28589289384</v>
+        <v>19586.3360688526</v>
       </c>
     </row>
     <row r="283">
@@ -8634,13 +8634,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>5872.098568752912</v>
+        <v>10544.5935062502</v>
       </c>
       <c r="F283" t="n">
-        <v>4404.073926564684</v>
+        <v>7908.445129687653</v>
       </c>
       <c r="G283" t="n">
-        <v>7340.12321094114</v>
+        <v>13180.74188281275</v>
       </c>
     </row>
     <row r="284">
@@ -8663,13 +8663,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>46655.21834783145</v>
+        <v>258497.8767515519</v>
       </c>
       <c r="F284" t="n">
-        <v>34991.41376087359</v>
+        <v>193873.407563664</v>
       </c>
       <c r="G284" t="n">
-        <v>58319.02293478932</v>
+        <v>323122.34593944</v>
       </c>
     </row>
     <row r="285">
@@ -8692,13 +8692,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28822.55711266032</v>
+        <v>159694.2438598476</v>
       </c>
       <c r="F285" t="n">
-        <v>21616.91783449524</v>
+        <v>119770.6828948857</v>
       </c>
       <c r="G285" t="n">
-        <v>36028.1963908254</v>
+        <v>199617.8048248096</v>
       </c>
     </row>
     <row r="286">
@@ -8721,13 +8721,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15551.73944927715</v>
+        <v>86165.95891718399</v>
       </c>
       <c r="F286" t="n">
-        <v>11663.80458695786</v>
+        <v>64624.46918788798</v>
       </c>
       <c r="G286" t="n">
-        <v>19439.67431159644</v>
+        <v>107707.44864648</v>
       </c>
     </row>
     <row r="287">
@@ -8750,13 +8750,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9797.595853044606</v>
+        <v>54284.55411782592</v>
       </c>
       <c r="F287" t="n">
-        <v>7348.196889783454</v>
+        <v>40713.41558836943</v>
       </c>
       <c r="G287" t="n">
-        <v>12246.99481630576</v>
+        <v>67855.69264728238</v>
       </c>
     </row>
     <row r="288">
@@ -8779,13 +8779,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8242.42190811689</v>
+        <v>45667.95822610751</v>
       </c>
       <c r="F288" t="n">
-        <v>6181.816431087668</v>
+        <v>34250.96866958064</v>
       </c>
       <c r="G288" t="n">
-        <v>10303.02738514611</v>
+        <v>57084.94778263439</v>
       </c>
     </row>
     <row r="289">
@@ -8808,13 +8808,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5546.787070242184</v>
+        <v>30732.52534712895</v>
       </c>
       <c r="F289" t="n">
-        <v>4160.090302681639</v>
+        <v>23049.39401034672</v>
       </c>
       <c r="G289" t="n">
-        <v>6933.483837802731</v>
+        <v>38415.65668391118</v>
       </c>
     </row>
     <row r="290">
@@ -8837,13 +8837,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>43488.88748907444</v>
+        <v>111553.8339731463</v>
       </c>
       <c r="F290" t="n">
-        <v>32616.66561680584</v>
+        <v>83665.37547985972</v>
       </c>
       <c r="G290" t="n">
-        <v>54361.10936134306</v>
+        <v>139442.2924664329</v>
       </c>
     </row>
     <row r="291">
@@ -8866,13 +8866,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26866.46827102821</v>
+        <v>68915.47965452149</v>
       </c>
       <c r="F291" t="n">
-        <v>20149.85120327116</v>
+        <v>51686.60974089112</v>
       </c>
       <c r="G291" t="n">
-        <v>33583.08533878527</v>
+        <v>86144.34956815187</v>
       </c>
     </row>
     <row r="292">
@@ -8895,13 +8895,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14496.29582969148</v>
+        <v>37184.6113243821</v>
       </c>
       <c r="F292" t="n">
-        <v>10872.22187226861</v>
+        <v>27888.45849328657</v>
       </c>
       <c r="G292" t="n">
-        <v>18120.36978711435</v>
+        <v>46480.76415547762</v>
       </c>
     </row>
     <row r="293">
@@ -8924,13 +8924,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9132.666372705635</v>
+        <v>23426.30513436073</v>
       </c>
       <c r="F293" t="n">
-        <v>6849.499779529226</v>
+        <v>17569.72885077054</v>
       </c>
       <c r="G293" t="n">
-        <v>11415.83296588204</v>
+        <v>29282.8814179509</v>
       </c>
     </row>
     <row r="294">
@@ -8953,13 +8953,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>7683.036789736487</v>
+        <v>19707.84400192251</v>
       </c>
       <c r="F294" t="n">
-        <v>5762.277592302365</v>
+        <v>14780.88300144189</v>
       </c>
       <c r="G294" t="n">
-        <v>9603.795987170606</v>
+        <v>24634.80500240314</v>
       </c>
     </row>
     <row r="295">
@@ -8982,13 +8982,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.51137236295</v>
       </c>
       <c r="F295" t="n">
-        <v>3877.759134442472</v>
+        <v>9946.883529272212</v>
       </c>
       <c r="G295" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.13921545368</v>
       </c>
     </row>
     <row r="296">
@@ -9011,13 +9011,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>49389.31281858461</v>
+        <v>422843.3763281227</v>
       </c>
       <c r="F296" t="n">
-        <v>37041.98461393846</v>
+        <v>317132.532246092</v>
       </c>
       <c r="G296" t="n">
-        <v>61736.64102323077</v>
+        <v>528554.2204101534</v>
       </c>
     </row>
     <row r="297">
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30511.61991903672</v>
+        <v>261223.2413760402</v>
       </c>
       <c r="F297" t="n">
-        <v>22883.71493927754</v>
+        <v>195917.4310320302</v>
       </c>
       <c r="G297" t="n">
-        <v>38139.5248987959</v>
+        <v>326529.0517200503</v>
       </c>
     </row>
     <row r="298">
@@ -9069,13 +9069,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16463.10427286154</v>
+        <v>140947.7921093742</v>
       </c>
       <c r="F298" t="n">
-        <v>12347.32820464615</v>
+        <v>105710.8440820307</v>
       </c>
       <c r="G298" t="n">
-        <v>20578.88034107692</v>
+        <v>176184.7401367178</v>
       </c>
     </row>
     <row r="299">
@@ -9098,13 +9098,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10371.75569190277</v>
+        <v>88797.10902890579</v>
       </c>
       <c r="F299" t="n">
-        <v>7778.816768927077</v>
+        <v>66597.83177167934</v>
       </c>
       <c r="G299" t="n">
-        <v>12964.69461487846</v>
+        <v>110996.3862861322</v>
       </c>
     </row>
     <row r="300">
@@ -9127,13 +9127,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>8725.445264616616</v>
+        <v>74702.32981796833</v>
       </c>
       <c r="F300" t="n">
-        <v>6544.083948462461</v>
+        <v>56026.74736347626</v>
       </c>
       <c r="G300" t="n">
-        <v>10906.80658077077</v>
+        <v>93377.91227246042</v>
       </c>
     </row>
     <row r="301">
@@ -9156,13 +9156,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>5871.840523987282</v>
+        <v>50271.37918567681</v>
       </c>
       <c r="F301" t="n">
-        <v>4403.880392990462</v>
+        <v>37703.53438925761</v>
       </c>
       <c r="G301" t="n">
-        <v>7339.800654984102</v>
+        <v>62839.223982096</v>
       </c>
     </row>
     <row r="302">
@@ -9185,13 +9185,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49396.7337886895</v>
+        <v>362611.2494817017</v>
       </c>
       <c r="F302" t="n">
-        <v>37047.55034151713</v>
+        <v>271958.4371112763</v>
       </c>
       <c r="G302" t="n">
-        <v>61745.91723586187</v>
+        <v>453264.0618521271</v>
       </c>
     </row>
     <row r="303">
@@ -9214,13 +9214,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30516.20442945707</v>
+        <v>224013.171902029</v>
       </c>
       <c r="F303" t="n">
-        <v>22887.1533220928</v>
+        <v>168009.8789265218</v>
       </c>
       <c r="G303" t="n">
-        <v>38145.25553682134</v>
+        <v>280016.4648775363</v>
       </c>
     </row>
     <row r="304">
@@ -9243,13 +9243,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16465.57792956317</v>
+        <v>120870.4164939006</v>
       </c>
       <c r="F304" t="n">
-        <v>12349.18344717237</v>
+        <v>90652.81237042542</v>
       </c>
       <c r="G304" t="n">
-        <v>20581.97241195396</v>
+        <v>151088.0206173757</v>
       </c>
     </row>
     <row r="305">
@@ -9272,13 +9272,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10373.3140956248</v>
+        <v>76148.36239115737</v>
       </c>
       <c r="F305" t="n">
-        <v>7779.985571718596</v>
+        <v>57111.27179336803</v>
       </c>
       <c r="G305" t="n">
-        <v>12966.64261953099</v>
+        <v>95185.45298894669</v>
       </c>
     </row>
     <row r="306">
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>8726.756302668478</v>
+        <v>64061.3207417673</v>
       </c>
       <c r="F306" t="n">
-        <v>6545.067227001358</v>
+        <v>48045.99055632548</v>
       </c>
       <c r="G306" t="n">
-        <v>10908.4453783356</v>
+        <v>80076.65092720912</v>
       </c>
     </row>
     <row r="307">
@@ -9330,13 +9330,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>5872.72279487753</v>
+        <v>43110.44854949121</v>
       </c>
       <c r="F307" t="n">
-        <v>4404.542096158148</v>
+        <v>32332.8364121184</v>
       </c>
       <c r="G307" t="n">
-        <v>7340.903493596911</v>
+        <v>53888.060686864</v>
       </c>
     </row>
     <row r="308">
@@ -9359,13 +9359,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>49395.07981485825</v>
+        <v>266579.5674141795</v>
       </c>
       <c r="F308" t="n">
-        <v>37046.30986114369</v>
+        <v>199934.6755606346</v>
       </c>
       <c r="G308" t="n">
-        <v>61743.84976857282</v>
+        <v>333224.4592677244</v>
       </c>
     </row>
     <row r="309">
@@ -9388,13 +9388,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30515.1826411791</v>
+        <v>164686.9327580931</v>
       </c>
       <c r="F309" t="n">
-        <v>22886.38698088433</v>
+        <v>123515.1995685698</v>
       </c>
       <c r="G309" t="n">
-        <v>38143.97830147388</v>
+        <v>205858.6659476164</v>
       </c>
     </row>
     <row r="310">
@@ -9417,13 +9417,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>16465.02660495275</v>
+        <v>88859.8558047265</v>
       </c>
       <c r="F310" t="n">
-        <v>12348.76995371456</v>
+        <v>66644.89185354488</v>
       </c>
       <c r="G310" t="n">
-        <v>20581.28325619094</v>
+        <v>111074.8197559081</v>
       </c>
     </row>
     <row r="311">
@@ -9446,13 +9446,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>10372.96676112023</v>
+        <v>55981.7091569777</v>
       </c>
       <c r="F311" t="n">
-        <v>7779.725070840176</v>
+        <v>41986.28186773328</v>
       </c>
       <c r="G311" t="n">
-        <v>12966.20845140029</v>
+        <v>69977.13644622211</v>
       </c>
     </row>
     <row r="312">
@@ -9475,13 +9475,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>8726.464100624959</v>
+        <v>47095.72357650504</v>
       </c>
       <c r="F312" t="n">
-        <v>6544.848075468719</v>
+        <v>35321.79268237879</v>
       </c>
       <c r="G312" t="n">
-        <v>10908.0801257812</v>
+        <v>58869.6544706313</v>
       </c>
     </row>
     <row r="313">
@@ -9504,13 +9504,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>5872.526155766482</v>
+        <v>31693.34857035245</v>
       </c>
       <c r="F313" t="n">
-        <v>4404.394616824862</v>
+        <v>23770.01142776434</v>
       </c>
       <c r="G313" t="n">
-        <v>7340.657694708102</v>
+        <v>39616.68571294056</v>
       </c>
     </row>
     <row r="314">
@@ -9533,13 +9533,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49396.52025061573</v>
+        <v>191302.135138003</v>
       </c>
       <c r="F314" t="n">
-        <v>37047.3901879618</v>
+        <v>143476.6013535022</v>
       </c>
       <c r="G314" t="n">
-        <v>61745.65031326967</v>
+        <v>239127.6689225037</v>
       </c>
     </row>
     <row r="315">
@@ -9562,13 +9562,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30516.07251038039</v>
+        <v>118182.2079296996</v>
       </c>
       <c r="F315" t="n">
-        <v>22887.05438278529</v>
+        <v>88636.6559472747</v>
       </c>
       <c r="G315" t="n">
-        <v>38145.09063797548</v>
+        <v>147727.7599121245</v>
       </c>
     </row>
     <row r="316">
@@ -9591,13 +9591,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16465.50675020524</v>
+        <v>63767.37837933432</v>
       </c>
       <c r="F316" t="n">
-        <v>12349.13006265393</v>
+        <v>47825.53378450074</v>
       </c>
       <c r="G316" t="n">
-        <v>20581.88343775655</v>
+        <v>79709.2229741679</v>
       </c>
     </row>
     <row r="317">
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10373.2692526293</v>
+        <v>40173.44837898063</v>
       </c>
       <c r="F317" t="n">
-        <v>7779.951939471977</v>
+        <v>30130.08628423547</v>
       </c>
       <c r="G317" t="n">
-        <v>12966.58656578663</v>
+        <v>50216.81047372577</v>
       </c>
     </row>
     <row r="318">
@@ -9649,13 +9649,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>8726.718577608779</v>
+        <v>33796.71054104719</v>
       </c>
       <c r="F318" t="n">
-        <v>6545.038933206584</v>
+        <v>25347.5329057854</v>
       </c>
       <c r="G318" t="n">
-        <v>10908.39822201097</v>
+        <v>42245.88817630898</v>
       </c>
     </row>
     <row r="319">
@@ -9678,13 +9678,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>5872.697407573202</v>
+        <v>22743.69828862924</v>
       </c>
       <c r="F319" t="n">
-        <v>4404.523055679903</v>
+        <v>17057.77371647193</v>
       </c>
       <c r="G319" t="n">
-        <v>7340.871759466504</v>
+        <v>28429.62286078655</v>
       </c>
     </row>
     <row r="320">
@@ -9707,13 +9707,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>49391.4832885759</v>
+        <v>162951.8922741721</v>
       </c>
       <c r="F320" t="n">
-        <v>37043.61246643192</v>
+        <v>122213.9192056291</v>
       </c>
       <c r="G320" t="n">
-        <v>61739.35411071987</v>
+        <v>203689.8653427152</v>
       </c>
     </row>
     <row r="321">
@@ -9736,13 +9736,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30512.96078716466</v>
+        <v>100668.0578938219</v>
       </c>
       <c r="F321" t="n">
-        <v>22884.7205903735</v>
+        <v>75501.04342036642</v>
       </c>
       <c r="G321" t="n">
-        <v>38141.20098395584</v>
+        <v>125835.0723672774</v>
       </c>
     </row>
     <row r="322">
@@ -9765,13 +9765,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16463.82776285863</v>
+        <v>54317.29742472405</v>
       </c>
       <c r="F322" t="n">
-        <v>12347.87082214397</v>
+        <v>40737.97306854303</v>
       </c>
       <c r="G322" t="n">
-        <v>20579.78470357329</v>
+        <v>67896.62178090506</v>
       </c>
     </row>
     <row r="323">
@@ -9794,13 +9794,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10372.21149060094</v>
+        <v>34219.89737757615</v>
       </c>
       <c r="F323" t="n">
-        <v>7779.158617950704</v>
+        <v>25664.92303318211</v>
       </c>
       <c r="G323" t="n">
-        <v>12965.26436325117</v>
+        <v>42774.87172197019</v>
       </c>
     </row>
     <row r="324">
@@ -9823,13 +9823,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>8725.828714315076</v>
+        <v>28788.16763510374</v>
       </c>
       <c r="F324" t="n">
-        <v>6544.371535736307</v>
+        <v>21591.12572632781</v>
       </c>
       <c r="G324" t="n">
-        <v>10907.28589289384</v>
+        <v>35985.20954387968</v>
       </c>
     </row>
     <row r="325">
@@ -9852,13 +9852,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5872.098568752912</v>
+        <v>19373.16941481824</v>
       </c>
       <c r="F325" t="n">
-        <v>4404.073926564684</v>
+        <v>14529.87706111368</v>
       </c>
       <c r="G325" t="n">
-        <v>7340.12321094114</v>
+        <v>24216.4617685228</v>
       </c>
     </row>
     <row r="326">
@@ -9881,13 +9881,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>46655.21834783145</v>
+        <v>315691.2979229944</v>
       </c>
       <c r="F326" t="n">
-        <v>34991.41376087359</v>
+        <v>236768.4734422458</v>
       </c>
       <c r="G326" t="n">
-        <v>58319.02293478932</v>
+        <v>394614.122403743</v>
       </c>
     </row>
     <row r="327">
@@ -9910,13 +9910,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28822.55711266032</v>
+        <v>195027.0684946499</v>
       </c>
       <c r="F327" t="n">
-        <v>21616.91783449524</v>
+        <v>146270.3013709874</v>
       </c>
       <c r="G327" t="n">
-        <v>36028.1963908254</v>
+        <v>243783.8356183124</v>
       </c>
     </row>
     <row r="328">
@@ -9939,13 +9939,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15551.73944927715</v>
+        <v>105230.4326409981</v>
       </c>
       <c r="F328" t="n">
-        <v>11663.80458695786</v>
+        <v>78922.82448074859</v>
       </c>
       <c r="G328" t="n">
-        <v>19439.67431159644</v>
+        <v>131538.0408012477</v>
       </c>
     </row>
     <row r="329">
@@ -9968,13 +9968,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>9797.595853044606</v>
+        <v>66295.17256382882</v>
       </c>
       <c r="F329" t="n">
-        <v>7348.196889783454</v>
+        <v>49721.37942287162</v>
       </c>
       <c r="G329" t="n">
-        <v>12246.99481630576</v>
+        <v>82868.96570478602</v>
       </c>
     </row>
     <row r="330">
@@ -9997,13 +9997,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>8242.42190811689</v>
+        <v>55772.129299729</v>
       </c>
       <c r="F330" t="n">
-        <v>6181.816431087668</v>
+        <v>41829.09697479676</v>
       </c>
       <c r="G330" t="n">
-        <v>10303.02738514611</v>
+        <v>69715.16162466125</v>
       </c>
     </row>
     <row r="331">
@@ -10026,13 +10026,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5546.787070242184</v>
+        <v>37532.187641956</v>
       </c>
       <c r="F331" t="n">
-        <v>4160.090302681639</v>
+        <v>28149.140731467</v>
       </c>
       <c r="G331" t="n">
-        <v>6933.483837802731</v>
+        <v>46915.23455244499</v>
       </c>
     </row>
     <row r="332">
@@ -10055,13 +10055,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>43488.88748907444</v>
+        <v>117966.0032985356</v>
       </c>
       <c r="F332" t="n">
-        <v>32616.66561680584</v>
+        <v>88474.50247390167</v>
       </c>
       <c r="G332" t="n">
-        <v>54361.10936134306</v>
+        <v>147457.5041231694</v>
       </c>
     </row>
     <row r="333">
@@ -10084,13 +10084,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26866.46827102821</v>
+        <v>72876.7753710953</v>
       </c>
       <c r="F333" t="n">
-        <v>20149.85120327116</v>
+        <v>54657.58152832147</v>
       </c>
       <c r="G333" t="n">
-        <v>33583.08533878527</v>
+        <v>91095.96921386912</v>
       </c>
     </row>
     <row r="334">
@@ -10113,13 +10113,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14496.29582969148</v>
+        <v>39322.00109951185</v>
       </c>
       <c r="F334" t="n">
-        <v>10872.22187226861</v>
+        <v>29491.50082463389</v>
       </c>
       <c r="G334" t="n">
-        <v>18120.36978711435</v>
+        <v>49152.50137438982</v>
       </c>
     </row>
     <row r="335">
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9132.666372705635</v>
+        <v>24772.86069269247</v>
       </c>
       <c r="F335" t="n">
-        <v>6849.499779529226</v>
+        <v>18579.64551951935</v>
       </c>
       <c r="G335" t="n">
-        <v>11415.83296588204</v>
+        <v>30966.07586586558</v>
       </c>
     </row>
     <row r="336">
@@ -10171,13 +10171,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7683.036789736487</v>
+        <v>20840.66058274128</v>
       </c>
       <c r="F336" t="n">
-        <v>5762.277592302365</v>
+        <v>15630.49543705596</v>
       </c>
       <c r="G336" t="n">
-        <v>9603.795987170606</v>
+        <v>26050.8257284266</v>
       </c>
     </row>
     <row r="337">
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>5170.345512589963</v>
+        <v>14024.84705882589</v>
       </c>
       <c r="F337" t="n">
-        <v>3877.759134442472</v>
+        <v>10518.63529411942</v>
       </c>
       <c r="G337" t="n">
-        <v>6462.931890737453</v>
+        <v>17531.05882353237</v>
       </c>
     </row>
     <row r="338">
@@ -10229,13 +10229,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49389.31281858461</v>
+        <v>306279.5987245396</v>
       </c>
       <c r="F338" t="n">
-        <v>37041.98461393846</v>
+        <v>229709.6990434047</v>
       </c>
       <c r="G338" t="n">
-        <v>61736.64102323077</v>
+        <v>382849.4984056745</v>
       </c>
     </row>
     <row r="339">
@@ -10258,13 +10258,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30511.61991903672</v>
+        <v>189212.7298787156</v>
       </c>
       <c r="F339" t="n">
-        <v>22883.71493927754</v>
+        <v>141909.5474090367</v>
       </c>
       <c r="G339" t="n">
-        <v>38139.5248987959</v>
+        <v>236515.9123483945</v>
       </c>
     </row>
     <row r="340">
@@ -10287,13 +10287,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16463.10427286154</v>
+        <v>102093.1995748465</v>
       </c>
       <c r="F340" t="n">
-        <v>12347.32820464615</v>
+        <v>76569.89968113489</v>
       </c>
       <c r="G340" t="n">
-        <v>20578.88034107692</v>
+        <v>127616.4994685582</v>
       </c>
     </row>
     <row r="341">
@@ -10316,13 +10316,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10371.75569190277</v>
+        <v>64318.71573215332</v>
       </c>
       <c r="F341" t="n">
-        <v>7778.816768927077</v>
+        <v>48239.03679911499</v>
       </c>
       <c r="G341" t="n">
-        <v>12964.69461487846</v>
+        <v>80398.39466519165</v>
       </c>
     </row>
     <row r="342">
@@ -10345,13 +10345,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>8725.445264616616</v>
+        <v>54109.39577466866</v>
       </c>
       <c r="F342" t="n">
-        <v>6544.083948462461</v>
+        <v>40582.0468310015</v>
       </c>
       <c r="G342" t="n">
-        <v>10906.80658077077</v>
+        <v>67636.74471833583</v>
       </c>
     </row>
     <row r="343">
@@ -10374,13 +10374,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5871.840523987282</v>
+        <v>36413.24118169526</v>
       </c>
       <c r="F343" t="n">
-        <v>4403.880392990462</v>
+        <v>27309.93088627145</v>
       </c>
       <c r="G343" t="n">
-        <v>7339.800654984102</v>
+        <v>45516.55147711907</v>
       </c>
     </row>
     <row r="344">
@@ -10403,13 +10403,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>49396.7337886895</v>
+        <v>236364.9008338421</v>
       </c>
       <c r="F344" t="n">
-        <v>37047.55034151713</v>
+        <v>177273.6756253816</v>
       </c>
       <c r="G344" t="n">
-        <v>61745.91723586187</v>
+        <v>295456.1260423026</v>
       </c>
     </row>
     <row r="345">
@@ -10432,13 +10432,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30516.20442945707</v>
+        <v>146020.9831817958</v>
       </c>
       <c r="F345" t="n">
-        <v>22887.1533220928</v>
+        <v>109515.7373863468</v>
       </c>
       <c r="G345" t="n">
-        <v>38145.25553682134</v>
+        <v>182526.2289772448</v>
       </c>
     </row>
     <row r="346">
@@ -10461,13 +10461,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16465.57792956317</v>
+        <v>78788.30027794738</v>
       </c>
       <c r="F346" t="n">
-        <v>12349.18344717237</v>
+        <v>59091.22520846053</v>
       </c>
       <c r="G346" t="n">
-        <v>20581.97241195396</v>
+        <v>98485.37534743422</v>
       </c>
     </row>
     <row r="347">
@@ -10490,13 +10490,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10373.3140956248</v>
+        <v>49636.62917510685</v>
       </c>
       <c r="F347" t="n">
-        <v>7779.985571718596</v>
+        <v>37227.47188133014</v>
       </c>
       <c r="G347" t="n">
-        <v>12966.64261953099</v>
+        <v>62045.78646888355</v>
       </c>
     </row>
     <row r="348">
@@ -10519,13 +10519,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>8726.756302668478</v>
+        <v>41757.79914731211</v>
       </c>
       <c r="F348" t="n">
-        <v>6545.067227001358</v>
+        <v>31318.34936048408</v>
       </c>
       <c r="G348" t="n">
-        <v>10908.4453783356</v>
+        <v>52197.24893414013</v>
       </c>
     </row>
     <row r="349">
@@ -10548,13 +10548,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>5872.72279487753</v>
+        <v>28101.1604324679</v>
       </c>
       <c r="F349" t="n">
-        <v>4404.542096158148</v>
+        <v>21075.87032435092</v>
       </c>
       <c r="G349" t="n">
-        <v>7340.903493596911</v>
+        <v>35126.45054058487</v>
       </c>
     </row>
     <row r="350">
@@ -10577,13 +10577,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49395.07981485825</v>
+        <v>160385.2747404714</v>
       </c>
       <c r="F350" t="n">
-        <v>37046.30986114369</v>
+        <v>120288.9560553536</v>
       </c>
       <c r="G350" t="n">
-        <v>61743.84976857282</v>
+        <v>200481.5934255893</v>
       </c>
     </row>
     <row r="351">
@@ -10606,13 +10606,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30515.1826411791</v>
+        <v>99082.4586174468</v>
       </c>
       <c r="F351" t="n">
-        <v>22886.38698088433</v>
+        <v>74311.84396308511</v>
       </c>
       <c r="G351" t="n">
-        <v>38143.97830147388</v>
+        <v>123853.0732718085</v>
       </c>
     </row>
     <row r="352">
@@ -10635,13 +10635,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16465.02660495275</v>
+        <v>53461.75824682383</v>
       </c>
       <c r="F352" t="n">
-        <v>12348.76995371456</v>
+        <v>40096.31868511786</v>
       </c>
       <c r="G352" t="n">
-        <v>20581.28325619094</v>
+        <v>66827.19780852977</v>
       </c>
     </row>
     <row r="353">
@@ -10664,13 +10664,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10372.96676112023</v>
+        <v>33680.90769549901</v>
       </c>
       <c r="F353" t="n">
-        <v>7779.725070840176</v>
+        <v>25260.68077162426</v>
       </c>
       <c r="G353" t="n">
-        <v>12966.20845140029</v>
+        <v>42101.13461937376</v>
       </c>
     </row>
     <row r="354">
@@ -10693,13 +10693,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8726.464100624959</v>
+        <v>28334.73187081662</v>
       </c>
       <c r="F354" t="n">
-        <v>6544.848075468719</v>
+        <v>21251.04890311247</v>
       </c>
       <c r="G354" t="n">
-        <v>10908.0801257812</v>
+        <v>35418.41483852078</v>
       </c>
     </row>
     <row r="355">
@@ -10722,13 +10722,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5872.526155766482</v>
+        <v>19068.02710803383</v>
       </c>
       <c r="F355" t="n">
-        <v>4404.394616824862</v>
+        <v>14301.02033102537</v>
       </c>
       <c r="G355" t="n">
-        <v>7340.657694708102</v>
+        <v>23835.03388504228</v>
       </c>
     </row>
     <row r="356">
@@ -10751,13 +10751,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>49396.52025061573</v>
+        <v>109533.8350337143</v>
       </c>
       <c r="F356" t="n">
-        <v>37047.3901879618</v>
+        <v>82150.37627528576</v>
       </c>
       <c r="G356" t="n">
-        <v>61745.65031326967</v>
+        <v>136917.2937921429</v>
       </c>
     </row>
     <row r="357">
@@ -10780,13 +10780,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30516.07251038039</v>
+        <v>67667.56919860575</v>
       </c>
       <c r="F357" t="n">
-        <v>22887.05438278529</v>
+        <v>50750.67689895431</v>
       </c>
       <c r="G357" t="n">
-        <v>38145.09063797548</v>
+        <v>84584.46149825718</v>
       </c>
     </row>
     <row r="358">
@@ -10809,13 +10809,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16465.50675020524</v>
+        <v>36511.27834457145</v>
       </c>
       <c r="F358" t="n">
-        <v>12349.13006265393</v>
+        <v>27383.45875842858</v>
       </c>
       <c r="G358" t="n">
-        <v>20581.88343775655</v>
+        <v>45639.09793071431</v>
       </c>
     </row>
     <row r="359">
@@ -10838,13 +10838,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10373.2692526293</v>
+        <v>23002.10535708001</v>
       </c>
       <c r="F359" t="n">
-        <v>7779.951939471977</v>
+        <v>17251.57901781001</v>
       </c>
       <c r="G359" t="n">
-        <v>12966.58656578663</v>
+        <v>28752.63169635001</v>
       </c>
     </row>
     <row r="360">
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>8726.718577608779</v>
+        <v>19350.97752262287</v>
       </c>
       <c r="F360" t="n">
-        <v>6545.038933206584</v>
+        <v>14513.23314196715</v>
       </c>
       <c r="G360" t="n">
-        <v>10908.39822201097</v>
+        <v>24188.72190327859</v>
       </c>
     </row>
     <row r="361">
@@ -10896,13 +10896,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5872.697407573202</v>
+        <v>13022.35594289715</v>
       </c>
       <c r="F361" t="n">
-        <v>4404.523055679903</v>
+        <v>9766.766957172862</v>
       </c>
       <c r="G361" t="n">
-        <v>7340.871759466504</v>
+        <v>16277.94492862144</v>
       </c>
     </row>
     <row r="362">
@@ -10925,13 +10925,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>49391.4832885759</v>
+        <v>88692.84257593629</v>
       </c>
       <c r="F362" t="n">
-        <v>37043.61246643192</v>
+        <v>66519.63193195222</v>
       </c>
       <c r="G362" t="n">
-        <v>61739.35411071987</v>
+        <v>110866.0532199204</v>
       </c>
     </row>
     <row r="363">
@@ -10954,13 +10954,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30512.96078716466</v>
+        <v>54792.4671913562</v>
       </c>
       <c r="F363" t="n">
-        <v>22884.7205903735</v>
+        <v>41094.35039351715</v>
       </c>
       <c r="G363" t="n">
-        <v>38141.20098395584</v>
+        <v>68490.58398919526</v>
       </c>
     </row>
     <row r="364">
@@ -10983,13 +10983,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16463.82776285863</v>
+        <v>29564.28085864543</v>
       </c>
       <c r="F364" t="n">
-        <v>12347.87082214397</v>
+        <v>22173.21064398407</v>
       </c>
       <c r="G364" t="n">
-        <v>20579.78470357329</v>
+        <v>36955.35107330679</v>
       </c>
     </row>
     <row r="365">
@@ -11012,13 +11012,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10372.21149060094</v>
+        <v>18625.49694094662</v>
       </c>
       <c r="F365" t="n">
-        <v>7779.158617950704</v>
+        <v>13969.12270570997</v>
       </c>
       <c r="G365" t="n">
-        <v>12965.26436325117</v>
+        <v>23281.87117618328</v>
       </c>
     </row>
     <row r="366">
@@ -11041,13 +11041,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8725.828714315076</v>
+        <v>15669.06885508208</v>
       </c>
       <c r="F366" t="n">
-        <v>6544.371535736307</v>
+        <v>11751.80164131156</v>
       </c>
       <c r="G366" t="n">
-        <v>10907.28589289384</v>
+        <v>19586.3360688526</v>
       </c>
     </row>
     <row r="367">
@@ -11070,13 +11070,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>5872.098568752912</v>
+        <v>10544.5935062502</v>
       </c>
       <c r="F367" t="n">
-        <v>4404.073926564684</v>
+        <v>7908.445129687653</v>
       </c>
       <c r="G367" t="n">
-        <v>7340.12321094114</v>
+        <v>13180.74188281275</v>
       </c>
     </row>
     <row r="368">
@@ -11099,13 +11099,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>46655.21834783145</v>
+        <v>258497.8767515519</v>
       </c>
       <c r="F368" t="n">
-        <v>34991.41376087359</v>
+        <v>193873.407563664</v>
       </c>
       <c r="G368" t="n">
-        <v>58319.02293478932</v>
+        <v>323122.34593944</v>
       </c>
     </row>
     <row r="369">
@@ -11128,13 +11128,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28822.55711266032</v>
+        <v>159694.2438598476</v>
       </c>
       <c r="F369" t="n">
-        <v>21616.91783449524</v>
+        <v>119770.6828948857</v>
       </c>
       <c r="G369" t="n">
-        <v>36028.1963908254</v>
+        <v>199617.8048248096</v>
       </c>
     </row>
     <row r="370">
@@ -11157,13 +11157,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15551.73944927715</v>
+        <v>86165.95891718399</v>
       </c>
       <c r="F370" t="n">
-        <v>11663.80458695786</v>
+        <v>64624.46918788798</v>
       </c>
       <c r="G370" t="n">
-        <v>19439.67431159644</v>
+        <v>107707.44864648</v>
       </c>
     </row>
     <row r="371">
@@ -11186,13 +11186,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>9797.595853044606</v>
+        <v>54284.55411782592</v>
       </c>
       <c r="F371" t="n">
-        <v>7348.196889783454</v>
+        <v>40713.41558836943</v>
       </c>
       <c r="G371" t="n">
-        <v>12246.99481630576</v>
+        <v>67855.69264728238</v>
       </c>
     </row>
     <row r="372">
@@ -11215,13 +11215,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>8242.42190811689</v>
+        <v>45667.95822610751</v>
       </c>
       <c r="F372" t="n">
-        <v>6181.816431087668</v>
+        <v>34250.96866958064</v>
       </c>
       <c r="G372" t="n">
-        <v>10303.02738514611</v>
+        <v>57084.94778263439</v>
       </c>
     </row>
     <row r="373">
@@ -11244,13 +11244,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>5546.787070242184</v>
+        <v>30732.52534712895</v>
       </c>
       <c r="F373" t="n">
-        <v>4160.090302681639</v>
+        <v>23049.39401034672</v>
       </c>
       <c r="G373" t="n">
-        <v>6933.483837802731</v>
+        <v>38415.65668391118</v>
       </c>
     </row>
     <row r="374">
@@ -11273,13 +11273,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>43488.88748907444</v>
+        <v>111553.8339731463</v>
       </c>
       <c r="F374" t="n">
-        <v>32616.66561680584</v>
+        <v>83665.37547985972</v>
       </c>
       <c r="G374" t="n">
-        <v>54361.10936134306</v>
+        <v>139442.2924664329</v>
       </c>
     </row>
     <row r="375">
@@ -11302,13 +11302,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26866.46827102821</v>
+        <v>68915.47965452149</v>
       </c>
       <c r="F375" t="n">
-        <v>20149.85120327116</v>
+        <v>51686.60974089112</v>
       </c>
       <c r="G375" t="n">
-        <v>33583.08533878527</v>
+        <v>86144.34956815187</v>
       </c>
     </row>
     <row r="376">
@@ -11331,13 +11331,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>14496.29582969148</v>
+        <v>37184.6113243821</v>
       </c>
       <c r="F376" t="n">
-        <v>10872.22187226861</v>
+        <v>27888.45849328657</v>
       </c>
       <c r="G376" t="n">
-        <v>18120.36978711435</v>
+        <v>46480.76415547762</v>
       </c>
     </row>
     <row r="377">
@@ -11360,13 +11360,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9132.666372705635</v>
+        <v>23426.30513436073</v>
       </c>
       <c r="F377" t="n">
-        <v>6849.499779529226</v>
+        <v>17569.72885077054</v>
       </c>
       <c r="G377" t="n">
-        <v>11415.83296588204</v>
+        <v>29282.8814179509</v>
       </c>
     </row>
     <row r="378">
@@ -11389,13 +11389,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>7683.036789736487</v>
+        <v>19707.84400192251</v>
       </c>
       <c r="F378" t="n">
-        <v>5762.277592302365</v>
+        <v>14780.88300144189</v>
       </c>
       <c r="G378" t="n">
-        <v>9603.795987170606</v>
+        <v>24634.80500240314</v>
       </c>
     </row>
     <row r="379">
@@ -11418,13 +11418,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.51137236295</v>
       </c>
       <c r="F379" t="n">
-        <v>3877.759134442472</v>
+        <v>9946.883529272212</v>
       </c>
       <c r="G379" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.13921545368</v>
       </c>
     </row>
     <row r="380">
@@ -11447,13 +11447,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>49389.31281858461</v>
+        <v>306279.5987245396</v>
       </c>
       <c r="F380" t="n">
-        <v>37041.98461393846</v>
+        <v>229709.6990434047</v>
       </c>
       <c r="G380" t="n">
-        <v>61736.64102323077</v>
+        <v>382849.4984056745</v>
       </c>
     </row>
     <row r="381">
@@ -11476,13 +11476,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30511.61991903672</v>
+        <v>189212.7298787156</v>
       </c>
       <c r="F381" t="n">
-        <v>22883.71493927754</v>
+        <v>141909.5474090367</v>
       </c>
       <c r="G381" t="n">
-        <v>38139.5248987959</v>
+        <v>236515.9123483945</v>
       </c>
     </row>
     <row r="382">
@@ -11505,13 +11505,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16463.10427286154</v>
+        <v>102093.1995748465</v>
       </c>
       <c r="F382" t="n">
-        <v>12347.32820464615</v>
+        <v>76569.89968113489</v>
       </c>
       <c r="G382" t="n">
-        <v>20578.88034107692</v>
+        <v>127616.4994685582</v>
       </c>
     </row>
     <row r="383">
@@ -11534,13 +11534,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10371.75569190277</v>
+        <v>64318.71573215332</v>
       </c>
       <c r="F383" t="n">
-        <v>7778.816768927077</v>
+        <v>48239.03679911499</v>
       </c>
       <c r="G383" t="n">
-        <v>12964.69461487846</v>
+        <v>80398.39466519165</v>
       </c>
     </row>
     <row r="384">
@@ -11563,13 +11563,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>8725.445264616616</v>
+        <v>54109.39577466866</v>
       </c>
       <c r="F384" t="n">
-        <v>6544.083948462461</v>
+        <v>40582.0468310015</v>
       </c>
       <c r="G384" t="n">
-        <v>10906.80658077077</v>
+        <v>67636.74471833583</v>
       </c>
     </row>
     <row r="385">
@@ -11592,13 +11592,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5871.840523987282</v>
+        <v>36413.24118169526</v>
       </c>
       <c r="F385" t="n">
-        <v>4403.880392990462</v>
+        <v>27309.93088627145</v>
       </c>
       <c r="G385" t="n">
-        <v>7339.800654984102</v>
+        <v>45516.55147711907</v>
       </c>
     </row>
     <row r="386">
@@ -11621,13 +11621,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49396.7337886895</v>
+        <v>236364.9008338421</v>
       </c>
       <c r="F386" t="n">
-        <v>37047.55034151713</v>
+        <v>177273.6756253816</v>
       </c>
       <c r="G386" t="n">
-        <v>61745.91723586187</v>
+        <v>295456.1260423026</v>
       </c>
     </row>
     <row r="387">
@@ -11650,13 +11650,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30516.20442945707</v>
+        <v>146020.9831817958</v>
       </c>
       <c r="F387" t="n">
-        <v>22887.1533220928</v>
+        <v>109515.7373863468</v>
       </c>
       <c r="G387" t="n">
-        <v>38145.25553682134</v>
+        <v>182526.2289772448</v>
       </c>
     </row>
     <row r="388">
@@ -11679,13 +11679,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16465.57792956317</v>
+        <v>78788.30027794738</v>
       </c>
       <c r="F388" t="n">
-        <v>12349.18344717237</v>
+        <v>59091.22520846053</v>
       </c>
       <c r="G388" t="n">
-        <v>20581.97241195396</v>
+        <v>98485.37534743422</v>
       </c>
     </row>
     <row r="389">
@@ -11708,13 +11708,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10373.3140956248</v>
+        <v>49636.62917510685</v>
       </c>
       <c r="F389" t="n">
-        <v>7779.985571718596</v>
+        <v>37227.47188133014</v>
       </c>
       <c r="G389" t="n">
-        <v>12966.64261953099</v>
+        <v>62045.78646888355</v>
       </c>
     </row>
     <row r="390">
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>8726.756302668478</v>
+        <v>41757.79914731211</v>
       </c>
       <c r="F390" t="n">
-        <v>6545.067227001358</v>
+        <v>31318.34936048408</v>
       </c>
       <c r="G390" t="n">
-        <v>10908.4453783356</v>
+        <v>52197.24893414013</v>
       </c>
     </row>
     <row r="391">
@@ -11766,13 +11766,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5872.72279487753</v>
+        <v>28101.1604324679</v>
       </c>
       <c r="F391" t="n">
-        <v>4404.542096158148</v>
+        <v>21075.87032435092</v>
       </c>
       <c r="G391" t="n">
-        <v>7340.903493596911</v>
+        <v>35126.45054058487</v>
       </c>
     </row>
     <row r="392">
@@ -11795,13 +11795,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49395.07981485825</v>
+        <v>160385.2747404714</v>
       </c>
       <c r="F392" t="n">
-        <v>37046.30986114369</v>
+        <v>120288.9560553536</v>
       </c>
       <c r="G392" t="n">
-        <v>61743.84976857282</v>
+        <v>200481.5934255893</v>
       </c>
     </row>
     <row r="393">
@@ -11824,13 +11824,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30515.1826411791</v>
+        <v>99082.4586174468</v>
       </c>
       <c r="F393" t="n">
-        <v>22886.38698088433</v>
+        <v>74311.84396308511</v>
       </c>
       <c r="G393" t="n">
-        <v>38143.97830147388</v>
+        <v>123853.0732718085</v>
       </c>
     </row>
     <row r="394">
@@ -11853,13 +11853,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16465.02660495275</v>
+        <v>53461.75824682383</v>
       </c>
       <c r="F394" t="n">
-        <v>12348.76995371456</v>
+        <v>40096.31868511786</v>
       </c>
       <c r="G394" t="n">
-        <v>20581.28325619094</v>
+        <v>66827.19780852977</v>
       </c>
     </row>
     <row r="395">
@@ -11882,13 +11882,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10372.96676112023</v>
+        <v>33680.90769549901</v>
       </c>
       <c r="F395" t="n">
-        <v>7779.725070840176</v>
+        <v>25260.68077162426</v>
       </c>
       <c r="G395" t="n">
-        <v>12966.20845140029</v>
+        <v>42101.13461937376</v>
       </c>
     </row>
     <row r="396">
@@ -11911,13 +11911,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>8726.464100624959</v>
+        <v>28334.73187081662</v>
       </c>
       <c r="F396" t="n">
-        <v>6544.848075468719</v>
+        <v>21251.04890311247</v>
       </c>
       <c r="G396" t="n">
-        <v>10908.0801257812</v>
+        <v>35418.41483852078</v>
       </c>
     </row>
     <row r="397">
@@ -11940,13 +11940,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>5872.526155766482</v>
+        <v>19068.02710803383</v>
       </c>
       <c r="F397" t="n">
-        <v>4404.394616824862</v>
+        <v>14301.02033102537</v>
       </c>
       <c r="G397" t="n">
-        <v>7340.657694708102</v>
+        <v>23835.03388504228</v>
       </c>
     </row>
     <row r="398">
@@ -11969,13 +11969,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49396.52025061573</v>
+        <v>109533.8350337143</v>
       </c>
       <c r="F398" t="n">
-        <v>37047.3901879618</v>
+        <v>82150.37627528576</v>
       </c>
       <c r="G398" t="n">
-        <v>61745.65031326967</v>
+        <v>136917.2937921429</v>
       </c>
     </row>
     <row r="399">
@@ -11998,13 +11998,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30516.07251038039</v>
+        <v>67667.56919860575</v>
       </c>
       <c r="F399" t="n">
-        <v>22887.05438278529</v>
+        <v>50750.67689895431</v>
       </c>
       <c r="G399" t="n">
-        <v>38145.09063797548</v>
+        <v>84584.46149825718</v>
       </c>
     </row>
     <row r="400">
@@ -12027,13 +12027,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16465.50675020524</v>
+        <v>36511.27834457145</v>
       </c>
       <c r="F400" t="n">
-        <v>12349.13006265393</v>
+        <v>27383.45875842858</v>
       </c>
       <c r="G400" t="n">
-        <v>20581.88343775655</v>
+        <v>45639.09793071431</v>
       </c>
     </row>
     <row r="401">
@@ -12056,13 +12056,13 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>10373.2692526293</v>
+        <v>23002.10535708001</v>
       </c>
       <c r="F401" t="n">
-        <v>7779.951939471977</v>
+        <v>17251.57901781001</v>
       </c>
       <c r="G401" t="n">
-        <v>12966.58656578663</v>
+        <v>28752.63169635001</v>
       </c>
     </row>
     <row r="402">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>8726.718577608779</v>
+        <v>19350.97752262287</v>
       </c>
       <c r="F402" t="n">
-        <v>6545.038933206584</v>
+        <v>14513.23314196715</v>
       </c>
       <c r="G402" t="n">
-        <v>10908.39822201097</v>
+        <v>24188.72190327859</v>
       </c>
     </row>
     <row r="403">
@@ -12114,13 +12114,13 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5872.697407573202</v>
+        <v>13022.35594289715</v>
       </c>
       <c r="F403" t="n">
-        <v>4404.523055679903</v>
+        <v>9766.766957172862</v>
       </c>
       <c r="G403" t="n">
-        <v>7340.871759466504</v>
+        <v>16277.94492862144</v>
       </c>
     </row>
     <row r="404">
@@ -12143,13 +12143,13 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>49391.4832885759</v>
+        <v>88692.84257593629</v>
       </c>
       <c r="F404" t="n">
-        <v>37043.61246643192</v>
+        <v>66519.63193195222</v>
       </c>
       <c r="G404" t="n">
-        <v>61739.35411071987</v>
+        <v>110866.0532199204</v>
       </c>
     </row>
     <row r="405">
@@ -12172,13 +12172,13 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30512.96078716466</v>
+        <v>54792.4671913562</v>
       </c>
       <c r="F405" t="n">
-        <v>22884.7205903735</v>
+        <v>41094.35039351715</v>
       </c>
       <c r="G405" t="n">
-        <v>38141.20098395584</v>
+        <v>68490.58398919526</v>
       </c>
     </row>
     <row r="406">
@@ -12201,13 +12201,13 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16463.82776285863</v>
+        <v>29564.28085864543</v>
       </c>
       <c r="F406" t="n">
-        <v>12347.87082214397</v>
+        <v>22173.21064398407</v>
       </c>
       <c r="G406" t="n">
-        <v>20579.78470357329</v>
+        <v>36955.35107330679</v>
       </c>
     </row>
     <row r="407">
@@ -12230,13 +12230,13 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10372.21149060094</v>
+        <v>18625.49694094662</v>
       </c>
       <c r="F407" t="n">
-        <v>7779.158617950704</v>
+        <v>13969.12270570997</v>
       </c>
       <c r="G407" t="n">
-        <v>12965.26436325117</v>
+        <v>23281.87117618328</v>
       </c>
     </row>
     <row r="408">
@@ -12259,13 +12259,13 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8725.828714315076</v>
+        <v>15669.06885508208</v>
       </c>
       <c r="F408" t="n">
-        <v>6544.371535736307</v>
+        <v>11751.80164131156</v>
       </c>
       <c r="G408" t="n">
-        <v>10907.28589289384</v>
+        <v>19586.3360688526</v>
       </c>
     </row>
     <row r="409">
@@ -12288,13 +12288,13 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5872.098568752912</v>
+        <v>10544.5935062502</v>
       </c>
       <c r="F409" t="n">
-        <v>4404.073926564684</v>
+        <v>7908.445129687653</v>
       </c>
       <c r="G409" t="n">
-        <v>7340.12321094114</v>
+        <v>13180.74188281275</v>
       </c>
     </row>
     <row r="410">
@@ -12317,13 +12317,13 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46655.21834783145</v>
+        <v>258497.8767515519</v>
       </c>
       <c r="F410" t="n">
-        <v>34991.41376087359</v>
+        <v>193873.407563664</v>
       </c>
       <c r="G410" t="n">
-        <v>58319.02293478932</v>
+        <v>323122.34593944</v>
       </c>
     </row>
     <row r="411">
@@ -12346,13 +12346,13 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28822.55711266032</v>
+        <v>159694.2438598476</v>
       </c>
       <c r="F411" t="n">
-        <v>21616.91783449524</v>
+        <v>119770.6828948857</v>
       </c>
       <c r="G411" t="n">
-        <v>36028.1963908254</v>
+        <v>199617.8048248096</v>
       </c>
     </row>
     <row r="412">
@@ -12375,13 +12375,13 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15551.73944927715</v>
+        <v>86165.95891718399</v>
       </c>
       <c r="F412" t="n">
-        <v>11663.80458695786</v>
+        <v>64624.46918788798</v>
       </c>
       <c r="G412" t="n">
-        <v>19439.67431159644</v>
+        <v>107707.44864648</v>
       </c>
     </row>
     <row r="413">
@@ -12404,13 +12404,13 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9797.595853044606</v>
+        <v>54284.55411782592</v>
       </c>
       <c r="F413" t="n">
-        <v>7348.196889783454</v>
+        <v>40713.41558836943</v>
       </c>
       <c r="G413" t="n">
-        <v>12246.99481630576</v>
+        <v>67855.69264728238</v>
       </c>
     </row>
     <row r="414">
@@ -12433,13 +12433,13 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>8242.42190811689</v>
+        <v>45667.95822610751</v>
       </c>
       <c r="F414" t="n">
-        <v>6181.816431087668</v>
+        <v>34250.96866958064</v>
       </c>
       <c r="G414" t="n">
-        <v>10303.02738514611</v>
+        <v>57084.94778263439</v>
       </c>
     </row>
     <row r="415">
@@ -12462,13 +12462,13 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>5546.787070242184</v>
+        <v>30732.52534712895</v>
       </c>
       <c r="F415" t="n">
-        <v>4160.090302681639</v>
+        <v>23049.39401034672</v>
       </c>
       <c r="G415" t="n">
-        <v>6933.483837802731</v>
+        <v>38415.65668391118</v>
       </c>
     </row>
     <row r="416">
@@ -12491,13 +12491,13 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>43488.88748907444</v>
+        <v>111553.8339731463</v>
       </c>
       <c r="F416" t="n">
-        <v>32616.66561680584</v>
+        <v>83665.37547985972</v>
       </c>
       <c r="G416" t="n">
-        <v>54361.10936134306</v>
+        <v>139442.2924664329</v>
       </c>
     </row>
     <row r="417">
@@ -12520,13 +12520,13 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26866.46827102821</v>
+        <v>68915.47965452149</v>
       </c>
       <c r="F417" t="n">
-        <v>20149.85120327116</v>
+        <v>51686.60974089112</v>
       </c>
       <c r="G417" t="n">
-        <v>33583.08533878527</v>
+        <v>86144.34956815187</v>
       </c>
     </row>
     <row r="418">
@@ -12549,13 +12549,13 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14496.29582969148</v>
+        <v>37184.6113243821</v>
       </c>
       <c r="F418" t="n">
-        <v>10872.22187226861</v>
+        <v>27888.45849328657</v>
       </c>
       <c r="G418" t="n">
-        <v>18120.36978711435</v>
+        <v>46480.76415547762</v>
       </c>
     </row>
     <row r="419">
@@ -12578,13 +12578,13 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>9132.666372705635</v>
+        <v>23426.30513436073</v>
       </c>
       <c r="F419" t="n">
-        <v>6849.499779529226</v>
+        <v>17569.72885077054</v>
       </c>
       <c r="G419" t="n">
-        <v>11415.83296588204</v>
+        <v>29282.8814179509</v>
       </c>
     </row>
     <row r="420">
@@ -12607,13 +12607,13 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>7683.036789736487</v>
+        <v>19707.84400192251</v>
       </c>
       <c r="F420" t="n">
-        <v>5762.277592302365</v>
+        <v>14780.88300144189</v>
       </c>
       <c r="G420" t="n">
-        <v>9603.795987170606</v>
+        <v>24634.80500240314</v>
       </c>
     </row>
     <row r="421">
@@ -12636,13 +12636,13 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>5170.345512589963</v>
+        <v>13262.51137236295</v>
       </c>
       <c r="F421" t="n">
-        <v>3877.759134442472</v>
+        <v>9946.883529272212</v>
       </c>
       <c r="G421" t="n">
-        <v>6462.931890737453</v>
+        <v>16578.13921545368</v>
       </c>
     </row>
   </sheetData>
